--- a/breastCancerFullDataSet.xlsx
+++ b/breastCancerFullDataSet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e38b7ccc05fc932/Documents/Machine Learning Research/research/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\Documents\GitHub\Neural-Network-Science-Fair-Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Class</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Clump thickness</t>
-  </si>
-  <si>
-    <t>intercept</t>
   </si>
 </sst>
 </file>
@@ -423,12 +420,12 @@
   <dimension ref="A1:K682"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N369" sqref="N369"/>
+      <selection activeCell="K1" sqref="K1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -459,9 +456,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
@@ -494,9 +489,7 @@
       <c r="J2">
         <v>8</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
-      </c>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -529,9 +522,7 @@
       <c r="J3">
         <v>10</v>
       </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -564,9 +555,7 @@
       <c r="J4">
         <v>5</v>
       </c>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -599,9 +588,7 @@
       <c r="J5">
         <v>10</v>
       </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -634,9 +621,7 @@
       <c r="J6">
         <v>10</v>
       </c>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -669,9 +654,7 @@
       <c r="J7">
         <v>8</v>
       </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -704,9 +687,7 @@
       <c r="J8">
         <v>8</v>
       </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -739,9 +720,7 @@
       <c r="J9">
         <v>7</v>
       </c>
-      <c r="K9" s="1">
-        <v>1</v>
-      </c>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -774,9 +753,7 @@
       <c r="J10">
         <v>8</v>
       </c>
-      <c r="K10" s="1">
-        <v>1</v>
-      </c>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -809,9 +786,7 @@
       <c r="J11">
         <v>10</v>
       </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -844,9 +819,7 @@
       <c r="J12">
         <v>8</v>
       </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -879,9 +852,7 @@
       <c r="J13">
         <v>8</v>
       </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -914,9 +885,7 @@
       <c r="J14">
         <v>8</v>
       </c>
-      <c r="K14" s="1">
-        <v>1</v>
-      </c>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -949,9 +918,7 @@
       <c r="J15">
         <v>9</v>
       </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -984,9 +951,7 @@
       <c r="J16">
         <v>5</v>
       </c>
-      <c r="K16" s="1">
-        <v>1</v>
-      </c>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -1019,9 +984,7 @@
       <c r="J17">
         <v>7</v>
       </c>
-      <c r="K17" s="1">
-        <v>1</v>
-      </c>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -1054,9 +1017,7 @@
       <c r="J18">
         <v>9</v>
       </c>
-      <c r="K18" s="1">
-        <v>1</v>
-      </c>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -1089,9 +1050,7 @@
       <c r="J19">
         <v>10</v>
       </c>
-      <c r="K19" s="1">
-        <v>1</v>
-      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1124,9 +1083,7 @@
       <c r="J20">
         <v>9</v>
       </c>
-      <c r="K20" s="1">
-        <v>1</v>
-      </c>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1159,9 +1116,7 @@
       <c r="J21">
         <v>3</v>
       </c>
-      <c r="K21" s="1">
-        <v>1</v>
-      </c>
+      <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1194,9 +1149,7 @@
       <c r="J22">
         <v>8</v>
       </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
+      <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1229,9 +1182,7 @@
       <c r="J23">
         <v>5</v>
       </c>
-      <c r="K23" s="1">
-        <v>1</v>
-      </c>
+      <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1264,9 +1215,7 @@
       <c r="J24">
         <v>6</v>
       </c>
-      <c r="K24" s="1">
-        <v>1</v>
-      </c>
+      <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1299,9 +1248,7 @@
       <c r="J25">
         <v>6</v>
       </c>
-      <c r="K25" s="1">
-        <v>1</v>
-      </c>
+      <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1334,9 +1281,7 @@
       <c r="J26">
         <v>5</v>
       </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
+      <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1369,9 +1314,7 @@
       <c r="J27">
         <v>10</v>
       </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
+      <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1404,9 +1347,7 @@
       <c r="J28">
         <v>5</v>
       </c>
-      <c r="K28" s="1">
-        <v>1</v>
-      </c>
+      <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1439,9 +1380,7 @@
       <c r="J29">
         <v>10</v>
       </c>
-      <c r="K29" s="1">
-        <v>1</v>
-      </c>
+      <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1474,9 +1413,7 @@
       <c r="J30">
         <v>10</v>
       </c>
-      <c r="K30" s="1">
-        <v>1</v>
-      </c>
+      <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1509,9 +1446,7 @@
       <c r="J31">
         <v>5</v>
       </c>
-      <c r="K31" s="1">
-        <v>1</v>
-      </c>
+      <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1544,9 +1479,7 @@
       <c r="J32">
         <v>6</v>
       </c>
-      <c r="K32" s="1">
-        <v>1</v>
-      </c>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1579,9 +1512,7 @@
       <c r="J33">
         <v>10</v>
       </c>
-      <c r="K33" s="1">
-        <v>1</v>
-      </c>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -1614,9 +1545,7 @@
       <c r="J34">
         <v>5</v>
       </c>
-      <c r="K34" s="1">
-        <v>1</v>
-      </c>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1649,9 +1578,7 @@
       <c r="J35">
         <v>10</v>
       </c>
-      <c r="K35" s="1">
-        <v>1</v>
-      </c>
+      <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
@@ -1684,9 +1611,7 @@
       <c r="J36">
         <v>10</v>
       </c>
-      <c r="K36" s="1">
-        <v>1</v>
-      </c>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -1719,9 +1644,7 @@
       <c r="J37">
         <v>2</v>
       </c>
-      <c r="K37" s="1">
-        <v>1</v>
-      </c>
+      <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -1754,9 +1677,7 @@
       <c r="J38">
         <v>8</v>
       </c>
-      <c r="K38" s="1">
-        <v>1</v>
-      </c>
+      <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -1789,9 +1710,7 @@
       <c r="J39">
         <v>8</v>
       </c>
-      <c r="K39" s="1">
-        <v>1</v>
-      </c>
+      <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -1824,9 +1743,7 @@
       <c r="J40">
         <v>8</v>
       </c>
-      <c r="K40" s="1">
-        <v>1</v>
-      </c>
+      <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -1859,9 +1776,7 @@
       <c r="J41">
         <v>7</v>
       </c>
-      <c r="K41" s="1">
-        <v>1</v>
-      </c>
+      <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
@@ -1894,9 +1809,7 @@
       <c r="J42">
         <v>10</v>
       </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
+      <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -1929,9 +1842,7 @@
       <c r="J43">
         <v>5</v>
       </c>
-      <c r="K43" s="1">
-        <v>1</v>
-      </c>
+      <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -1964,9 +1875,7 @@
       <c r="J44">
         <v>6</v>
       </c>
-      <c r="K44" s="1">
-        <v>1</v>
-      </c>
+      <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -1999,9 +1908,7 @@
       <c r="J45">
         <v>10</v>
       </c>
-      <c r="K45" s="1">
-        <v>1</v>
-      </c>
+      <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -2034,9 +1941,7 @@
       <c r="J46">
         <v>8</v>
       </c>
-      <c r="K46" s="1">
-        <v>1</v>
-      </c>
+      <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -2069,9 +1974,7 @@
       <c r="J47">
         <v>8</v>
       </c>
-      <c r="K47" s="1">
-        <v>1</v>
-      </c>
+      <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -2104,9 +2007,7 @@
       <c r="J48">
         <v>8</v>
       </c>
-      <c r="K48" s="1">
-        <v>1</v>
-      </c>
+      <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -2139,9 +2040,7 @@
       <c r="J49">
         <v>4</v>
       </c>
-      <c r="K49" s="1">
-        <v>1</v>
-      </c>
+      <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -2174,9 +2073,7 @@
       <c r="J50">
         <v>4</v>
       </c>
-      <c r="K50" s="1">
-        <v>1</v>
-      </c>
+      <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -2209,9 +2106,7 @@
       <c r="J51">
         <v>3</v>
       </c>
-      <c r="K51" s="1">
-        <v>1</v>
-      </c>
+      <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -2244,9 +2139,7 @@
       <c r="J52">
         <v>10</v>
       </c>
-      <c r="K52" s="1">
-        <v>1</v>
-      </c>
+      <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -2279,9 +2172,7 @@
       <c r="J53">
         <v>10</v>
       </c>
-      <c r="K53" s="1">
-        <v>1</v>
-      </c>
+      <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -2314,9 +2205,7 @@
       <c r="J54">
         <v>5</v>
       </c>
-      <c r="K54" s="1">
-        <v>1</v>
-      </c>
+      <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -2349,9 +2238,7 @@
       <c r="J55">
         <v>10</v>
       </c>
-      <c r="K55" s="1">
-        <v>1</v>
-      </c>
+      <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
@@ -2384,9 +2271,7 @@
       <c r="J56">
         <v>7</v>
       </c>
-      <c r="K56" s="1">
-        <v>1</v>
-      </c>
+      <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -2419,9 +2304,7 @@
       <c r="J57">
         <v>10</v>
       </c>
-      <c r="K57" s="1">
-        <v>1</v>
-      </c>
+      <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -2454,9 +2337,7 @@
       <c r="J58">
         <v>5</v>
       </c>
-      <c r="K58" s="1">
-        <v>1</v>
-      </c>
+      <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -2489,9 +2370,7 @@
       <c r="J59">
         <v>5</v>
       </c>
-      <c r="K59" s="1">
-        <v>1</v>
-      </c>
+      <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -2524,9 +2403,7 @@
       <c r="J60">
         <v>8</v>
       </c>
-      <c r="K60" s="1">
-        <v>1</v>
-      </c>
+      <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -2559,9 +2436,7 @@
       <c r="J61">
         <v>10</v>
       </c>
-      <c r="K61" s="1">
-        <v>1</v>
-      </c>
+      <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -2594,9 +2469,7 @@
       <c r="J62">
         <v>10</v>
       </c>
-      <c r="K62" s="1">
-        <v>1</v>
-      </c>
+      <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -2629,9 +2502,7 @@
       <c r="J63">
         <v>9</v>
       </c>
-      <c r="K63" s="1">
-        <v>1</v>
-      </c>
+      <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -2664,9 +2535,7 @@
       <c r="J64">
         <v>8</v>
       </c>
-      <c r="K64" s="1">
-        <v>1</v>
-      </c>
+      <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -2699,9 +2568,7 @@
       <c r="J65">
         <v>2</v>
       </c>
-      <c r="K65" s="1">
-        <v>1</v>
-      </c>
+      <c r="K65" s="1"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -2734,9 +2601,7 @@
       <c r="J66">
         <v>4</v>
       </c>
-      <c r="K66" s="1">
-        <v>1</v>
-      </c>
+      <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -2769,9 +2634,7 @@
       <c r="J67">
         <v>6</v>
       </c>
-      <c r="K67" s="1">
-        <v>1</v>
-      </c>
+      <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -2804,9 +2667,7 @@
       <c r="J68">
         <v>5</v>
       </c>
-      <c r="K68" s="1">
-        <v>1</v>
-      </c>
+      <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -2839,9 +2700,7 @@
       <c r="J69">
         <v>8</v>
       </c>
-      <c r="K69" s="1">
-        <v>1</v>
-      </c>
+      <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -2874,9 +2733,7 @@
       <c r="J70">
         <v>5</v>
       </c>
-      <c r="K70" s="1">
-        <v>1</v>
-      </c>
+      <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -2909,9 +2766,7 @@
       <c r="J71">
         <v>5</v>
       </c>
-      <c r="K71" s="1">
-        <v>1</v>
-      </c>
+      <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -2944,9 +2799,7 @@
       <c r="J72">
         <v>10</v>
       </c>
-      <c r="K72" s="1">
-        <v>1</v>
-      </c>
+      <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -2979,9 +2832,7 @@
       <c r="J73">
         <v>10</v>
       </c>
-      <c r="K73" s="1">
-        <v>1</v>
-      </c>
+      <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -3014,9 +2865,7 @@
       <c r="J74">
         <v>10</v>
       </c>
-      <c r="K74" s="1">
-        <v>1</v>
-      </c>
+      <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -3049,9 +2898,7 @@
       <c r="J75">
         <v>1</v>
       </c>
-      <c r="K75" s="1">
-        <v>1</v>
-      </c>
+      <c r="K75" s="1"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -3084,9 +2931,7 @@
       <c r="J76">
         <v>10</v>
       </c>
-      <c r="K76" s="1">
-        <v>1</v>
-      </c>
+      <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -3119,9 +2964,7 @@
       <c r="J77">
         <v>8</v>
       </c>
-      <c r="K77" s="1">
-        <v>1</v>
-      </c>
+      <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -3154,9 +2997,7 @@
       <c r="J78">
         <v>9</v>
       </c>
-      <c r="K78" s="1">
-        <v>1</v>
-      </c>
+      <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -3189,9 +3030,7 @@
       <c r="J79">
         <v>10</v>
       </c>
-      <c r="K79" s="1">
-        <v>1</v>
-      </c>
+      <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -3224,9 +3063,7 @@
       <c r="J80">
         <v>8</v>
       </c>
-      <c r="K80" s="1">
-        <v>1</v>
-      </c>
+      <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -3259,9 +3096,7 @@
       <c r="J81">
         <v>5</v>
       </c>
-      <c r="K81" s="1">
-        <v>1</v>
-      </c>
+      <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -3294,9 +3129,7 @@
       <c r="J82">
         <v>10</v>
       </c>
-      <c r="K82" s="1">
-        <v>1</v>
-      </c>
+      <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -3329,9 +3162,7 @@
       <c r="J83">
         <v>8</v>
       </c>
-      <c r="K83" s="1">
-        <v>1</v>
-      </c>
+      <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -3364,9 +3195,7 @@
       <c r="J84">
         <v>3</v>
       </c>
-      <c r="K84" s="1">
-        <v>1</v>
-      </c>
+      <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -3399,9 +3228,7 @@
       <c r="J85">
         <v>9</v>
       </c>
-      <c r="K85" s="1">
-        <v>1</v>
-      </c>
+      <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -3434,9 +3261,7 @@
       <c r="J86">
         <v>5</v>
       </c>
-      <c r="K86" s="1">
-        <v>1</v>
-      </c>
+      <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -3469,9 +3294,7 @@
       <c r="J87">
         <v>7</v>
       </c>
-      <c r="K87" s="1">
-        <v>1</v>
-      </c>
+      <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -3504,9 +3327,7 @@
       <c r="J88">
         <v>5</v>
       </c>
-      <c r="K88" s="1">
-        <v>1</v>
-      </c>
+      <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -3539,9 +3360,7 @@
       <c r="J89">
         <v>3</v>
       </c>
-      <c r="K89" s="1">
-        <v>1</v>
-      </c>
+      <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -3574,9 +3393,7 @@
       <c r="J90">
         <v>10</v>
       </c>
-      <c r="K90" s="1">
-        <v>1</v>
-      </c>
+      <c r="K90" s="1"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -3609,9 +3426,7 @@
       <c r="J91">
         <v>7</v>
       </c>
-      <c r="K91" s="1">
-        <v>1</v>
-      </c>
+      <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -3644,9 +3459,7 @@
       <c r="J92">
         <v>10</v>
       </c>
-      <c r="K92" s="1">
-        <v>1</v>
-      </c>
+      <c r="K92" s="1"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -3679,9 +3492,7 @@
       <c r="J93">
         <v>5</v>
       </c>
-      <c r="K93" s="1">
-        <v>1</v>
-      </c>
+      <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -3714,9 +3525,7 @@
       <c r="J94">
         <v>8</v>
       </c>
-      <c r="K94" s="1">
-        <v>1</v>
-      </c>
+      <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -3749,9 +3558,7 @@
       <c r="J95">
         <v>8</v>
       </c>
-      <c r="K95" s="1">
-        <v>1</v>
-      </c>
+      <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -3784,9 +3591,7 @@
       <c r="J96">
         <v>6</v>
       </c>
-      <c r="K96" s="1">
-        <v>1</v>
-      </c>
+      <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97">
@@ -3819,9 +3624,7 @@
       <c r="J97">
         <v>4</v>
       </c>
-      <c r="K97" s="1">
-        <v>1</v>
-      </c>
+      <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -3854,9 +3657,7 @@
       <c r="J98">
         <v>7</v>
       </c>
-      <c r="K98" s="1">
-        <v>1</v>
-      </c>
+      <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -3889,9 +3690,7 @@
       <c r="J99">
         <v>5</v>
       </c>
-      <c r="K99" s="1">
-        <v>1</v>
-      </c>
+      <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -3924,9 +3723,7 @@
       <c r="J100">
         <v>10</v>
       </c>
-      <c r="K100" s="1">
-        <v>1</v>
-      </c>
+      <c r="K100" s="1"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101">
@@ -3959,9 +3756,7 @@
       <c r="J101">
         <v>5</v>
       </c>
-      <c r="K101" s="1">
-        <v>1</v>
-      </c>
+      <c r="K101" s="1"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -3994,9 +3789,7 @@
       <c r="J102">
         <v>9</v>
       </c>
-      <c r="K102" s="1">
-        <v>1</v>
-      </c>
+      <c r="K102" s="1"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -4029,9 +3822,7 @@
       <c r="J103">
         <v>3</v>
       </c>
-      <c r="K103" s="1">
-        <v>1</v>
-      </c>
+      <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -4064,9 +3855,7 @@
       <c r="J104">
         <v>5</v>
       </c>
-      <c r="K104" s="1">
-        <v>1</v>
-      </c>
+      <c r="K104" s="1"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -4099,9 +3888,7 @@
       <c r="J105">
         <v>8</v>
       </c>
-      <c r="K105" s="1">
-        <v>1</v>
-      </c>
+      <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -4134,9 +3921,7 @@
       <c r="J106">
         <v>3</v>
       </c>
-      <c r="K106" s="1">
-        <v>1</v>
-      </c>
+      <c r="K106" s="1"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -4169,9 +3954,7 @@
       <c r="J107">
         <v>10</v>
       </c>
-      <c r="K107" s="1">
-        <v>1</v>
-      </c>
+      <c r="K107" s="1"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -4204,9 +3987,7 @@
       <c r="J108">
         <v>10</v>
       </c>
-      <c r="K108" s="1">
-        <v>1</v>
-      </c>
+      <c r="K108" s="1"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -4239,9 +4020,7 @@
       <c r="J109">
         <v>10</v>
       </c>
-      <c r="K109" s="1">
-        <v>1</v>
-      </c>
+      <c r="K109" s="1"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110">
@@ -4274,9 +4053,7 @@
       <c r="J110">
         <v>10</v>
       </c>
-      <c r="K110" s="1">
-        <v>1</v>
-      </c>
+      <c r="K110" s="1"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -4309,9 +4086,7 @@
       <c r="J111">
         <v>5</v>
       </c>
-      <c r="K111" s="1">
-        <v>1</v>
-      </c>
+      <c r="K111" s="1"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -4344,9 +4119,7 @@
       <c r="J112">
         <v>8</v>
       </c>
-      <c r="K112" s="1">
-        <v>1</v>
-      </c>
+      <c r="K112" s="1"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -4379,9 +4152,7 @@
       <c r="J113">
         <v>5</v>
       </c>
-      <c r="K113" s="1">
-        <v>1</v>
-      </c>
+      <c r="K113" s="1"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -4414,9 +4185,7 @@
       <c r="J114">
         <v>10</v>
       </c>
-      <c r="K114" s="1">
-        <v>1</v>
-      </c>
+      <c r="K114" s="1"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -4449,9 +4218,7 @@
       <c r="J115">
         <v>6</v>
       </c>
-      <c r="K115" s="1">
-        <v>1</v>
-      </c>
+      <c r="K115" s="1"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -4484,9 +4251,7 @@
       <c r="J116">
         <v>3</v>
       </c>
-      <c r="K116" s="1">
-        <v>1</v>
-      </c>
+      <c r="K116" s="1"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -4519,9 +4284,7 @@
       <c r="J117">
         <v>4</v>
       </c>
-      <c r="K117" s="1">
-        <v>1</v>
-      </c>
+      <c r="K117" s="1"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -4554,9 +4317,7 @@
       <c r="J118">
         <v>5</v>
       </c>
-      <c r="K118" s="1">
-        <v>1</v>
-      </c>
+      <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -4589,9 +4350,7 @@
       <c r="J119">
         <v>4</v>
       </c>
-      <c r="K119" s="1">
-        <v>1</v>
-      </c>
+      <c r="K119" s="1"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -4624,9 +4383,7 @@
       <c r="J120">
         <v>7</v>
       </c>
-      <c r="K120" s="1">
-        <v>1</v>
-      </c>
+      <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -4659,9 +4416,7 @@
       <c r="J121">
         <v>2</v>
       </c>
-      <c r="K121" s="1">
-        <v>1</v>
-      </c>
+      <c r="K121" s="1"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122">
@@ -4694,9 +4449,7 @@
       <c r="J122">
         <v>5</v>
       </c>
-      <c r="K122" s="1">
-        <v>1</v>
-      </c>
+      <c r="K122" s="1"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -4729,9 +4482,7 @@
       <c r="J123">
         <v>1</v>
       </c>
-      <c r="K123" s="1">
-        <v>1</v>
-      </c>
+      <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -4764,9 +4515,7 @@
       <c r="J124">
         <v>3</v>
       </c>
-      <c r="K124" s="1">
-        <v>1</v>
-      </c>
+      <c r="K124" s="1"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -4799,9 +4548,7 @@
       <c r="J125">
         <v>4</v>
       </c>
-      <c r="K125" s="1">
-        <v>1</v>
-      </c>
+      <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -4834,9 +4581,7 @@
       <c r="J126">
         <v>1</v>
       </c>
-      <c r="K126" s="1">
-        <v>1</v>
-      </c>
+      <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -4869,9 +4614,7 @@
       <c r="J127">
         <v>4</v>
       </c>
-      <c r="K127" s="1">
-        <v>1</v>
-      </c>
+      <c r="K127" s="1"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -4904,9 +4647,7 @@
       <c r="J128">
         <v>4</v>
       </c>
-      <c r="K128" s="1">
-        <v>1</v>
-      </c>
+      <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -4939,9 +4680,7 @@
       <c r="J129">
         <v>4</v>
       </c>
-      <c r="K129" s="1">
-        <v>1</v>
-      </c>
+      <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
@@ -4974,9 +4713,7 @@
       <c r="J130">
         <v>2</v>
       </c>
-      <c r="K130" s="1">
-        <v>1</v>
-      </c>
+      <c r="K130" s="1"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
@@ -5009,9 +4746,7 @@
       <c r="J131">
         <v>4</v>
       </c>
-      <c r="K131" s="1">
-        <v>1</v>
-      </c>
+      <c r="K131" s="1"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -5044,9 +4779,7 @@
       <c r="J132">
         <v>5</v>
       </c>
-      <c r="K132" s="1">
-        <v>1</v>
-      </c>
+      <c r="K132" s="1"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -5079,9 +4812,7 @@
       <c r="J133">
         <v>4</v>
       </c>
-      <c r="K133" s="1">
-        <v>1</v>
-      </c>
+      <c r="K133" s="1"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -5114,9 +4845,7 @@
       <c r="J134">
         <v>5</v>
       </c>
-      <c r="K134" s="1">
-        <v>1</v>
-      </c>
+      <c r="K134" s="1"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -5149,9 +4878,7 @@
       <c r="J135">
         <v>1</v>
       </c>
-      <c r="K135" s="1">
-        <v>1</v>
-      </c>
+      <c r="K135" s="1"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
@@ -5184,9 +4911,7 @@
       <c r="J136">
         <v>1</v>
       </c>
-      <c r="K136" s="1">
-        <v>1</v>
-      </c>
+      <c r="K136" s="1"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -5219,9 +4944,7 @@
       <c r="J137">
         <v>5</v>
       </c>
-      <c r="K137" s="1">
-        <v>1</v>
-      </c>
+      <c r="K137" s="1"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -5254,9 +4977,7 @@
       <c r="J138">
         <v>5</v>
       </c>
-      <c r="K138" s="1">
-        <v>1</v>
-      </c>
+      <c r="K138" s="1"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -5289,9 +5010,7 @@
       <c r="J139">
         <v>1</v>
       </c>
-      <c r="K139" s="1">
-        <v>1</v>
-      </c>
+      <c r="K139" s="1"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
@@ -5324,9 +5043,7 @@
       <c r="J140">
         <v>3</v>
       </c>
-      <c r="K140" s="1">
-        <v>1</v>
-      </c>
+      <c r="K140" s="1"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -5359,9 +5076,7 @@
       <c r="J141">
         <v>2</v>
       </c>
-      <c r="K141" s="1">
-        <v>1</v>
-      </c>
+      <c r="K141" s="1"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -5394,9 +5109,7 @@
       <c r="J142">
         <v>1</v>
       </c>
-      <c r="K142" s="1">
-        <v>1</v>
-      </c>
+      <c r="K142" s="1"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -5429,9 +5142,7 @@
       <c r="J143">
         <v>3</v>
       </c>
-      <c r="K143" s="1">
-        <v>1</v>
-      </c>
+      <c r="K143" s="1"/>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -5464,9 +5175,7 @@
       <c r="J144">
         <v>5</v>
       </c>
-      <c r="K144" s="1">
-        <v>1</v>
-      </c>
+      <c r="K144" s="1"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -5499,9 +5208,7 @@
       <c r="J145">
         <v>3</v>
       </c>
-      <c r="K145" s="1">
-        <v>1</v>
-      </c>
+      <c r="K145" s="1"/>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -5534,9 +5241,7 @@
       <c r="J146">
         <v>6</v>
       </c>
-      <c r="K146" s="1">
-        <v>1</v>
-      </c>
+      <c r="K146" s="1"/>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -5569,9 +5274,7 @@
       <c r="J147">
         <v>1</v>
       </c>
-      <c r="K147" s="1">
-        <v>1</v>
-      </c>
+      <c r="K147" s="1"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -5604,9 +5307,7 @@
       <c r="J148">
         <v>5</v>
       </c>
-      <c r="K148" s="1">
-        <v>1</v>
-      </c>
+      <c r="K148" s="1"/>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -5639,9 +5340,7 @@
       <c r="J149">
         <v>3</v>
       </c>
-      <c r="K149" s="1">
-        <v>1</v>
-      </c>
+      <c r="K149" s="1"/>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -5674,9 +5373,7 @@
       <c r="J150">
         <v>5</v>
       </c>
-      <c r="K150" s="1">
-        <v>1</v>
-      </c>
+      <c r="K150" s="1"/>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -5709,9 +5406,7 @@
       <c r="J151">
         <v>2</v>
       </c>
-      <c r="K151" s="1">
-        <v>1</v>
-      </c>
+      <c r="K151" s="1"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -5744,9 +5439,7 @@
       <c r="J152">
         <v>4</v>
       </c>
-      <c r="K152" s="1">
-        <v>1</v>
-      </c>
+      <c r="K152" s="1"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -5779,9 +5472,7 @@
       <c r="J153">
         <v>5</v>
       </c>
-      <c r="K153" s="1">
-        <v>1</v>
-      </c>
+      <c r="K153" s="1"/>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -5814,9 +5505,7 @@
       <c r="J154">
         <v>3</v>
       </c>
-      <c r="K154" s="1">
-        <v>1</v>
-      </c>
+      <c r="K154" s="1"/>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155">
@@ -5849,9 +5538,7 @@
       <c r="J155">
         <v>8</v>
       </c>
-      <c r="K155" s="1">
-        <v>1</v>
-      </c>
+      <c r="K155" s="1"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -5884,9 +5571,7 @@
       <c r="J156">
         <v>4</v>
       </c>
-      <c r="K156" s="1">
-        <v>1</v>
-      </c>
+      <c r="K156" s="1"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -5919,9 +5604,7 @@
       <c r="J157">
         <v>3</v>
       </c>
-      <c r="K157" s="1">
-        <v>1</v>
-      </c>
+      <c r="K157" s="1"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -5954,9 +5637,7 @@
       <c r="J158">
         <v>4</v>
       </c>
-      <c r="K158" s="1">
-        <v>1</v>
-      </c>
+      <c r="K158" s="1"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -5989,9 +5670,7 @@
       <c r="J159">
         <v>3</v>
       </c>
-      <c r="K159" s="1">
-        <v>1</v>
-      </c>
+      <c r="K159" s="1"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -6024,9 +5703,7 @@
       <c r="J160">
         <v>1</v>
       </c>
-      <c r="K160" s="1">
-        <v>1</v>
-      </c>
+      <c r="K160" s="1"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161">
@@ -6059,9 +5736,7 @@
       <c r="J161">
         <v>4</v>
       </c>
-      <c r="K161" s="1">
-        <v>1</v>
-      </c>
+      <c r="K161" s="1"/>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162">
@@ -6094,9 +5769,7 @@
       <c r="J162">
         <v>1</v>
       </c>
-      <c r="K162" s="1">
-        <v>1</v>
-      </c>
+      <c r="K162" s="1"/>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163">
@@ -6129,9 +5802,7 @@
       <c r="J163">
         <v>4</v>
       </c>
-      <c r="K163" s="1">
-        <v>1</v>
-      </c>
+      <c r="K163" s="1"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -6164,9 +5835,7 @@
       <c r="J164">
         <v>1</v>
       </c>
-      <c r="K164" s="1">
-        <v>1</v>
-      </c>
+      <c r="K164" s="1"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -6199,9 +5868,7 @@
       <c r="J165">
         <v>3</v>
       </c>
-      <c r="K165" s="1">
-        <v>1</v>
-      </c>
+      <c r="K165" s="1"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166">
@@ -6234,9 +5901,7 @@
       <c r="J166">
         <v>1</v>
       </c>
-      <c r="K166" s="1">
-        <v>1</v>
-      </c>
+      <c r="K166" s="1"/>
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -6269,9 +5934,7 @@
       <c r="J167">
         <v>3</v>
       </c>
-      <c r="K167" s="1">
-        <v>1</v>
-      </c>
+      <c r="K167" s="1"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -6304,9 +5967,7 @@
       <c r="J168">
         <v>4</v>
       </c>
-      <c r="K168" s="1">
-        <v>1</v>
-      </c>
+      <c r="K168" s="1"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -6339,9 +6000,7 @@
       <c r="J169">
         <v>5</v>
       </c>
-      <c r="K169" s="1">
-        <v>1</v>
-      </c>
+      <c r="K169" s="1"/>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -6374,9 +6033,7 @@
       <c r="J170">
         <v>5</v>
       </c>
-      <c r="K170" s="1">
-        <v>1</v>
-      </c>
+      <c r="K170" s="1"/>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -6409,9 +6066,7 @@
       <c r="J171">
         <v>5</v>
       </c>
-      <c r="K171" s="1">
-        <v>1</v>
-      </c>
+      <c r="K171" s="1"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -6444,9 +6099,7 @@
       <c r="J172">
         <v>3</v>
       </c>
-      <c r="K172" s="1">
-        <v>1</v>
-      </c>
+      <c r="K172" s="1"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -6479,9 +6132,7 @@
       <c r="J173">
         <v>5</v>
       </c>
-      <c r="K173" s="1">
-        <v>1</v>
-      </c>
+      <c r="K173" s="1"/>
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174">
@@ -6514,9 +6165,7 @@
       <c r="J174">
         <v>5</v>
       </c>
-      <c r="K174" s="1">
-        <v>1</v>
-      </c>
+      <c r="K174" s="1"/>
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -6549,9 +6198,7 @@
       <c r="J175">
         <v>3</v>
       </c>
-      <c r="K175" s="1">
-        <v>1</v>
-      </c>
+      <c r="K175" s="1"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -6584,9 +6231,7 @@
       <c r="J176">
         <v>1</v>
       </c>
-      <c r="K176" s="1">
-        <v>1</v>
-      </c>
+      <c r="K176" s="1"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177">
@@ -6619,9 +6264,7 @@
       <c r="J177">
         <v>1</v>
       </c>
-      <c r="K177" s="1">
-        <v>1</v>
-      </c>
+      <c r="K177" s="1"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178">
@@ -6654,9 +6297,7 @@
       <c r="J178">
         <v>5</v>
       </c>
-      <c r="K178" s="1">
-        <v>1</v>
-      </c>
+      <c r="K178" s="1"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -6689,9 +6330,7 @@
       <c r="J179">
         <v>1</v>
       </c>
-      <c r="K179" s="1">
-        <v>1</v>
-      </c>
+      <c r="K179" s="1"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180">
@@ -6724,9 +6363,7 @@
       <c r="J180">
         <v>4</v>
       </c>
-      <c r="K180" s="1">
-        <v>1</v>
-      </c>
+      <c r="K180" s="1"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -6759,9 +6396,7 @@
       <c r="J181">
         <v>1</v>
       </c>
-      <c r="K181" s="1">
-        <v>1</v>
-      </c>
+      <c r="K181" s="1"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -6794,9 +6429,7 @@
       <c r="J182">
         <v>3</v>
       </c>
-      <c r="K182" s="1">
-        <v>1</v>
-      </c>
+      <c r="K182" s="1"/>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183">
@@ -6829,9 +6462,7 @@
       <c r="J183">
         <v>1</v>
       </c>
-      <c r="K183" s="1">
-        <v>1</v>
-      </c>
+      <c r="K183" s="1"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -6864,9 +6495,7 @@
       <c r="J184">
         <v>1</v>
       </c>
-      <c r="K184" s="1">
-        <v>1</v>
-      </c>
+      <c r="K184" s="1"/>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -6899,9 +6528,7 @@
       <c r="J185">
         <v>3</v>
       </c>
-      <c r="K185" s="1">
-        <v>1</v>
-      </c>
+      <c r="K185" s="1"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -6934,9 +6561,7 @@
       <c r="J186">
         <v>6</v>
       </c>
-      <c r="K186" s="1">
-        <v>1</v>
-      </c>
+      <c r="K186" s="1"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187">
@@ -6969,9 +6594,7 @@
       <c r="J187">
         <v>5</v>
       </c>
-      <c r="K187" s="1">
-        <v>1</v>
-      </c>
+      <c r="K187" s="1"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -7004,9 +6627,7 @@
       <c r="J188">
         <v>1</v>
       </c>
-      <c r="K188" s="1">
-        <v>1</v>
-      </c>
+      <c r="K188" s="1"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -7039,9 +6660,7 @@
       <c r="J189">
         <v>4</v>
       </c>
-      <c r="K189" s="1">
-        <v>1</v>
-      </c>
+      <c r="K189" s="1"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190">
@@ -7074,9 +6693,7 @@
       <c r="J190">
         <v>5</v>
       </c>
-      <c r="K190" s="1">
-        <v>1</v>
-      </c>
+      <c r="K190" s="1"/>
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -7109,9 +6726,7 @@
       <c r="J191">
         <v>1</v>
       </c>
-      <c r="K191" s="1">
-        <v>1</v>
-      </c>
+      <c r="K191" s="1"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192">
@@ -7144,9 +6759,7 @@
       <c r="J192">
         <v>5</v>
       </c>
-      <c r="K192" s="1">
-        <v>1</v>
-      </c>
+      <c r="K192" s="1"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -7179,9 +6792,7 @@
       <c r="J193">
         <v>2</v>
       </c>
-      <c r="K193" s="1">
-        <v>1</v>
-      </c>
+      <c r="K193" s="1"/>
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194">
@@ -7214,9 +6825,7 @@
       <c r="J194">
         <v>3</v>
       </c>
-      <c r="K194" s="1">
-        <v>1</v>
-      </c>
+      <c r="K194" s="1"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -7249,9 +6858,7 @@
       <c r="J195">
         <v>5</v>
       </c>
-      <c r="K195" s="1">
-        <v>1</v>
-      </c>
+      <c r="K195" s="1"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -7284,9 +6891,7 @@
       <c r="J196">
         <v>1</v>
       </c>
-      <c r="K196" s="1">
-        <v>1</v>
-      </c>
+      <c r="K196" s="1"/>
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -7319,9 +6924,7 @@
       <c r="J197">
         <v>4</v>
       </c>
-      <c r="K197" s="1">
-        <v>1</v>
-      </c>
+      <c r="K197" s="1"/>
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198">
@@ -7354,9 +6957,7 @@
       <c r="J198">
         <v>4</v>
       </c>
-      <c r="K198" s="1">
-        <v>1</v>
-      </c>
+      <c r="K198" s="1"/>
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -7389,9 +6990,7 @@
       <c r="J199">
         <v>1</v>
       </c>
-      <c r="K199" s="1">
-        <v>1</v>
-      </c>
+      <c r="K199" s="1"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -7424,9 +7023,7 @@
       <c r="J200">
         <v>4</v>
       </c>
-      <c r="K200" s="1">
-        <v>1</v>
-      </c>
+      <c r="K200" s="1"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -7459,9 +7056,7 @@
       <c r="J201">
         <v>4</v>
       </c>
-      <c r="K201" s="1">
-        <v>1</v>
-      </c>
+      <c r="K201" s="1"/>
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -7494,9 +7089,7 @@
       <c r="J202">
         <v>1</v>
       </c>
-      <c r="K202" s="1">
-        <v>1</v>
-      </c>
+      <c r="K202" s="1"/>
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -7529,9 +7122,7 @@
       <c r="J203">
         <v>3</v>
       </c>
-      <c r="K203" s="1">
-        <v>1</v>
-      </c>
+      <c r="K203" s="1"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -7564,9 +7155,7 @@
       <c r="J204">
         <v>6</v>
       </c>
-      <c r="K204" s="1">
-        <v>1</v>
-      </c>
+      <c r="K204" s="1"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -7599,9 +7188,7 @@
       <c r="J205">
         <v>1</v>
       </c>
-      <c r="K205" s="1">
-        <v>1</v>
-      </c>
+      <c r="K205" s="1"/>
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -7634,9 +7221,7 @@
       <c r="J206">
         <v>2</v>
       </c>
-      <c r="K206" s="1">
-        <v>1</v>
-      </c>
+      <c r="K206" s="1"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -7669,9 +7254,7 @@
       <c r="J207">
         <v>4</v>
       </c>
-      <c r="K207" s="1">
-        <v>1</v>
-      </c>
+      <c r="K207" s="1"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -7704,9 +7287,7 @@
       <c r="J208">
         <v>2</v>
       </c>
-      <c r="K208" s="1">
-        <v>1</v>
-      </c>
+      <c r="K208" s="1"/>
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209">
@@ -7739,9 +7320,7 @@
       <c r="J209">
         <v>4</v>
       </c>
-      <c r="K209" s="1">
-        <v>1</v>
-      </c>
+      <c r="K209" s="1"/>
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210">
@@ -7774,9 +7353,7 @@
       <c r="J210">
         <v>2</v>
       </c>
-      <c r="K210" s="1">
-        <v>1</v>
-      </c>
+      <c r="K210" s="1"/>
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211">
@@ -7809,9 +7386,7 @@
       <c r="J211">
         <v>5</v>
       </c>
-      <c r="K211" s="1">
-        <v>1</v>
-      </c>
+      <c r="K211" s="1"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -7844,9 +7419,7 @@
       <c r="J212">
         <v>5</v>
       </c>
-      <c r="K212" s="1">
-        <v>1</v>
-      </c>
+      <c r="K212" s="1"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -7879,9 +7452,7 @@
       <c r="J213">
         <v>2</v>
       </c>
-      <c r="K213" s="1">
-        <v>1</v>
-      </c>
+      <c r="K213" s="1"/>
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214">
@@ -7914,9 +7485,7 @@
       <c r="J214">
         <v>3</v>
       </c>
-      <c r="K214" s="1">
-        <v>1</v>
-      </c>
+      <c r="K214" s="1"/>
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -7949,9 +7518,7 @@
       <c r="J215">
         <v>4</v>
       </c>
-      <c r="K215" s="1">
-        <v>1</v>
-      </c>
+      <c r="K215" s="1"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -7984,9 +7551,7 @@
       <c r="J216">
         <v>1</v>
       </c>
-      <c r="K216" s="1">
-        <v>1</v>
-      </c>
+      <c r="K216" s="1"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -8019,9 +7584,7 @@
       <c r="J217">
         <v>1</v>
       </c>
-      <c r="K217" s="1">
-        <v>1</v>
-      </c>
+      <c r="K217" s="1"/>
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -8054,9 +7617,7 @@
       <c r="J218">
         <v>1</v>
       </c>
-      <c r="K218" s="1">
-        <v>1</v>
-      </c>
+      <c r="K218" s="1"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -8089,9 +7650,7 @@
       <c r="J219">
         <v>5</v>
       </c>
-      <c r="K219" s="1">
-        <v>1</v>
-      </c>
+      <c r="K219" s="1"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220">
@@ -8124,9 +7683,7 @@
       <c r="J220">
         <v>2</v>
       </c>
-      <c r="K220" s="1">
-        <v>1</v>
-      </c>
+      <c r="K220" s="1"/>
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221">
@@ -8159,9 +7716,7 @@
       <c r="J221">
         <v>3</v>
       </c>
-      <c r="K221" s="1">
-        <v>1</v>
-      </c>
+      <c r="K221" s="1"/>
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -8194,9 +7749,7 @@
       <c r="J222">
         <v>3</v>
       </c>
-      <c r="K222" s="1">
-        <v>1</v>
-      </c>
+      <c r="K222" s="1"/>
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -8229,9 +7782,7 @@
       <c r="J223">
         <v>4</v>
       </c>
-      <c r="K223" s="1">
-        <v>1</v>
-      </c>
+      <c r="K223" s="1"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -8264,9 +7815,7 @@
       <c r="J224">
         <v>3</v>
       </c>
-      <c r="K224" s="1">
-        <v>1</v>
-      </c>
+      <c r="K224" s="1"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -8299,9 +7848,7 @@
       <c r="J225">
         <v>6</v>
       </c>
-      <c r="K225" s="1">
-        <v>1</v>
-      </c>
+      <c r="K225" s="1"/>
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -8334,9 +7881,7 @@
       <c r="J226">
         <v>3</v>
       </c>
-      <c r="K226" s="1">
-        <v>1</v>
-      </c>
+      <c r="K226" s="1"/>
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -8369,9 +7914,7 @@
       <c r="J227">
         <v>3</v>
       </c>
-      <c r="K227" s="1">
-        <v>1</v>
-      </c>
+      <c r="K227" s="1"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -8404,9 +7947,7 @@
       <c r="J228">
         <v>5</v>
       </c>
-      <c r="K228" s="1">
-        <v>1</v>
-      </c>
+      <c r="K228" s="1"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -8439,9 +7980,7 @@
       <c r="J229">
         <v>3</v>
       </c>
-      <c r="K229" s="1">
-        <v>1</v>
-      </c>
+      <c r="K229" s="1"/>
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -8474,9 +8013,7 @@
       <c r="J230">
         <v>1</v>
       </c>
-      <c r="K230" s="1">
-        <v>1</v>
-      </c>
+      <c r="K230" s="1"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231">
@@ -8509,9 +8046,7 @@
       <c r="J231">
         <v>2</v>
       </c>
-      <c r="K231" s="1">
-        <v>1</v>
-      </c>
+      <c r="K231" s="1"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -8544,9 +8079,7 @@
       <c r="J232">
         <v>4</v>
       </c>
-      <c r="K232" s="1">
-        <v>1</v>
-      </c>
+      <c r="K232" s="1"/>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -8579,9 +8112,7 @@
       <c r="J233">
         <v>5</v>
       </c>
-      <c r="K233" s="1">
-        <v>1</v>
-      </c>
+      <c r="K233" s="1"/>
     </row>
     <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -8614,9 +8145,7 @@
       <c r="J234">
         <v>1</v>
       </c>
-      <c r="K234" s="1">
-        <v>1</v>
-      </c>
+      <c r="K234" s="1"/>
     </row>
     <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235">
@@ -8649,9 +8178,7 @@
       <c r="J235">
         <v>1</v>
       </c>
-      <c r="K235" s="1">
-        <v>1</v>
-      </c>
+      <c r="K235" s="1"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -8684,9 +8211,7 @@
       <c r="J236">
         <v>3</v>
       </c>
-      <c r="K236" s="1">
-        <v>1</v>
-      </c>
+      <c r="K236" s="1"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -8719,9 +8244,7 @@
       <c r="J237">
         <v>5</v>
       </c>
-      <c r="K237" s="1">
-        <v>1</v>
-      </c>
+      <c r="K237" s="1"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -8754,9 +8277,7 @@
       <c r="J238">
         <v>1</v>
       </c>
-      <c r="K238" s="1">
-        <v>1</v>
-      </c>
+      <c r="K238" s="1"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239">
@@ -8789,9 +8310,7 @@
       <c r="J239">
         <v>1</v>
       </c>
-      <c r="K239" s="1">
-        <v>1</v>
-      </c>
+      <c r="K239" s="1"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240">
@@ -8824,9 +8343,7 @@
       <c r="J240">
         <v>4</v>
       </c>
-      <c r="K240" s="1">
-        <v>1</v>
-      </c>
+      <c r="K240" s="1"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241">
@@ -8859,9 +8376,7 @@
       <c r="J241">
         <v>5</v>
       </c>
-      <c r="K241" s="1">
-        <v>1</v>
-      </c>
+      <c r="K241" s="1"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242">
@@ -8894,9 +8409,7 @@
       <c r="J242">
         <v>3</v>
       </c>
-      <c r="K242" s="1">
-        <v>1</v>
-      </c>
+      <c r="K242" s="1"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243">
@@ -8929,9 +8442,7 @@
       <c r="J243">
         <v>5</v>
       </c>
-      <c r="K243" s="1">
-        <v>1</v>
-      </c>
+      <c r="K243" s="1"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -8964,9 +8475,7 @@
       <c r="J244">
         <v>3</v>
       </c>
-      <c r="K244" s="1">
-        <v>1</v>
-      </c>
+      <c r="K244" s="1"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -8999,9 +8508,7 @@
       <c r="J245">
         <v>4</v>
       </c>
-      <c r="K245" s="1">
-        <v>1</v>
-      </c>
+      <c r="K245" s="1"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246">
@@ -9034,9 +8541,7 @@
       <c r="J246">
         <v>8</v>
       </c>
-      <c r="K246" s="1">
-        <v>1</v>
-      </c>
+      <c r="K246" s="1"/>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -9069,9 +8574,7 @@
       <c r="J247">
         <v>4</v>
       </c>
-      <c r="K247" s="1">
-        <v>1</v>
-      </c>
+      <c r="K247" s="1"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -9104,9 +8607,7 @@
       <c r="J248">
         <v>5</v>
       </c>
-      <c r="K248" s="1">
-        <v>1</v>
-      </c>
+      <c r="K248" s="1"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249">
@@ -9139,9 +8640,7 @@
       <c r="J249">
         <v>1</v>
       </c>
-      <c r="K249" s="1">
-        <v>1</v>
-      </c>
+      <c r="K249" s="1"/>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250">
@@ -9174,9 +8673,7 @@
       <c r="J250">
         <v>5</v>
       </c>
-      <c r="K250" s="1">
-        <v>1</v>
-      </c>
+      <c r="K250" s="1"/>
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251">
@@ -9209,9 +8706,7 @@
       <c r="J251">
         <v>1</v>
       </c>
-      <c r="K251" s="1">
-        <v>1</v>
-      </c>
+      <c r="K251" s="1"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252">
@@ -9244,9 +8739,7 @@
       <c r="J252">
         <v>3</v>
       </c>
-      <c r="K252" s="1">
-        <v>1</v>
-      </c>
+      <c r="K252" s="1"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253">
@@ -9279,9 +8772,7 @@
       <c r="J253">
         <v>1</v>
       </c>
-      <c r="K253" s="1">
-        <v>1</v>
-      </c>
+      <c r="K253" s="1"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254">
@@ -9314,9 +8805,7 @@
       <c r="J254">
         <v>4</v>
       </c>
-      <c r="K254" s="1">
-        <v>1</v>
-      </c>
+      <c r="K254" s="1"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255">
@@ -9349,9 +8838,7 @@
       <c r="J255">
         <v>1</v>
       </c>
-      <c r="K255" s="1">
-        <v>1</v>
-      </c>
+      <c r="K255" s="1"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256">
@@ -9384,9 +8871,7 @@
       <c r="J256">
         <v>3</v>
       </c>
-      <c r="K256" s="1">
-        <v>1</v>
-      </c>
+      <c r="K256" s="1"/>
     </row>
     <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257">
@@ -9419,9 +8904,7 @@
       <c r="J257">
         <v>4</v>
       </c>
-      <c r="K257" s="1">
-        <v>1</v>
-      </c>
+      <c r="K257" s="1"/>
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258">
@@ -9454,9 +8937,7 @@
       <c r="J258">
         <v>5</v>
       </c>
-      <c r="K258" s="1">
-        <v>1</v>
-      </c>
+      <c r="K258" s="1"/>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259">
@@ -9489,9 +8970,7 @@
       <c r="J259">
         <v>2</v>
       </c>
-      <c r="K259" s="1">
-        <v>1</v>
-      </c>
+      <c r="K259" s="1"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260">
@@ -9524,9 +9003,7 @@
       <c r="J260">
         <v>5</v>
       </c>
-      <c r="K260" s="1">
-        <v>1</v>
-      </c>
+      <c r="K260" s="1"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261">
@@ -9559,9 +9036,7 @@
       <c r="J261">
         <v>5</v>
       </c>
-      <c r="K261" s="1">
-        <v>1</v>
-      </c>
+      <c r="K261" s="1"/>
     </row>
     <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262">
@@ -9594,9 +9069,7 @@
       <c r="J262">
         <v>2</v>
       </c>
-      <c r="K262" s="1">
-        <v>1</v>
-      </c>
+      <c r="K262" s="1"/>
     </row>
     <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263">
@@ -9629,9 +9102,7 @@
       <c r="J263">
         <v>4</v>
       </c>
-      <c r="K263" s="1">
-        <v>1</v>
-      </c>
+      <c r="K263" s="1"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264">
@@ -9664,9 +9135,7 @@
       <c r="J264">
         <v>1</v>
       </c>
-      <c r="K264" s="1">
-        <v>1</v>
-      </c>
+      <c r="K264" s="1"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265">
@@ -9699,9 +9168,7 @@
       <c r="J265">
         <v>3</v>
       </c>
-      <c r="K265" s="1">
-        <v>1</v>
-      </c>
+      <c r="K265" s="1"/>
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266">
@@ -9734,9 +9201,7 @@
       <c r="J266">
         <v>2</v>
       </c>
-      <c r="K266" s="1">
-        <v>1</v>
-      </c>
+      <c r="K266" s="1"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267">
@@ -9769,9 +9234,7 @@
       <c r="J267">
         <v>5</v>
       </c>
-      <c r="K267" s="1">
-        <v>1</v>
-      </c>
+      <c r="K267" s="1"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268">
@@ -9804,9 +9267,7 @@
       <c r="J268">
         <v>5</v>
       </c>
-      <c r="K268" s="1">
-        <v>1</v>
-      </c>
+      <c r="K268" s="1"/>
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269">
@@ -9839,9 +9300,7 @@
       <c r="J269">
         <v>6</v>
       </c>
-      <c r="K269" s="1">
-        <v>1</v>
-      </c>
+      <c r="K269" s="1"/>
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270">
@@ -9874,9 +9333,7 @@
       <c r="J270">
         <v>6</v>
       </c>
-      <c r="K270" s="1">
-        <v>1</v>
-      </c>
+      <c r="K270" s="1"/>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271">
@@ -9909,9 +9366,7 @@
       <c r="J271">
         <v>5</v>
       </c>
-      <c r="K271" s="1">
-        <v>1</v>
-      </c>
+      <c r="K271" s="1"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272">
@@ -9944,9 +9399,7 @@
       <c r="J272">
         <v>5</v>
       </c>
-      <c r="K272" s="1">
-        <v>1</v>
-      </c>
+      <c r="K272" s="1"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273">
@@ -9979,9 +9432,7 @@
       <c r="J273">
         <v>5</v>
       </c>
-      <c r="K273" s="1">
-        <v>1</v>
-      </c>
+      <c r="K273" s="1"/>
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274">
@@ -10014,9 +9465,7 @@
       <c r="J274">
         <v>3</v>
       </c>
-      <c r="K274" s="1">
-        <v>1</v>
-      </c>
+      <c r="K274" s="1"/>
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275">
@@ -10049,9 +9498,7 @@
       <c r="J275">
         <v>3</v>
       </c>
-      <c r="K275" s="1">
-        <v>1</v>
-      </c>
+      <c r="K275" s="1"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276">
@@ -10084,9 +9531,7 @@
       <c r="J276">
         <v>5</v>
       </c>
-      <c r="K276" s="1">
-        <v>1</v>
-      </c>
+      <c r="K276" s="1"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277">
@@ -10119,9 +9564,7 @@
       <c r="J277">
         <v>3</v>
       </c>
-      <c r="K277" s="1">
-        <v>1</v>
-      </c>
+      <c r="K277" s="1"/>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278">
@@ -10154,9 +9597,7 @@
       <c r="J278">
         <v>1</v>
       </c>
-      <c r="K278" s="1">
-        <v>1</v>
-      </c>
+      <c r="K278" s="1"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279">
@@ -10189,9 +9630,7 @@
       <c r="J279">
         <v>2</v>
       </c>
-      <c r="K279" s="1">
-        <v>1</v>
-      </c>
+      <c r="K279" s="1"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280">
@@ -10224,9 +9663,7 @@
       <c r="J280">
         <v>1</v>
       </c>
-      <c r="K280" s="1">
-        <v>1</v>
-      </c>
+      <c r="K280" s="1"/>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281">
@@ -10259,9 +9696,7 @@
       <c r="J281">
         <v>5</v>
       </c>
-      <c r="K281" s="1">
-        <v>1</v>
-      </c>
+      <c r="K281" s="1"/>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282">
@@ -10294,9 +9729,7 @@
       <c r="J282">
         <v>5</v>
       </c>
-      <c r="K282" s="1">
-        <v>1</v>
-      </c>
+      <c r="K282" s="1"/>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283">
@@ -10329,9 +9762,7 @@
       <c r="J283">
         <v>3</v>
       </c>
-      <c r="K283" s="1">
-        <v>1</v>
-      </c>
+      <c r="K283" s="1"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284">
@@ -10364,9 +9795,7 @@
       <c r="J284">
         <v>1</v>
       </c>
-      <c r="K284" s="1">
-        <v>1</v>
-      </c>
+      <c r="K284" s="1"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285">
@@ -10399,9 +9828,7 @@
       <c r="J285">
         <v>1</v>
       </c>
-      <c r="K285" s="1">
-        <v>1</v>
-      </c>
+      <c r="K285" s="1"/>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286">
@@ -10434,9 +9861,7 @@
       <c r="J286">
         <v>2</v>
       </c>
-      <c r="K286" s="1">
-        <v>1</v>
-      </c>
+      <c r="K286" s="1"/>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287">
@@ -10469,9 +9894,7 @@
       <c r="J287">
         <v>4</v>
       </c>
-      <c r="K287" s="1">
-        <v>1</v>
-      </c>
+      <c r="K287" s="1"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288">
@@ -10504,9 +9927,7 @@
       <c r="J288">
         <v>1</v>
       </c>
-      <c r="K288" s="1">
-        <v>1</v>
-      </c>
+      <c r="K288" s="1"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289">
@@ -10539,9 +9960,7 @@
       <c r="J289">
         <v>5</v>
       </c>
-      <c r="K289" s="1">
-        <v>1</v>
-      </c>
+      <c r="K289" s="1"/>
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290">
@@ -10574,9 +9993,7 @@
       <c r="J290">
         <v>5</v>
       </c>
-      <c r="K290" s="1">
-        <v>1</v>
-      </c>
+      <c r="K290" s="1"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291">
@@ -10609,9 +10026,7 @@
       <c r="J291">
         <v>5</v>
       </c>
-      <c r="K291" s="1">
-        <v>1</v>
-      </c>
+      <c r="K291" s="1"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292">
@@ -10644,9 +10059,7 @@
       <c r="J292">
         <v>1</v>
       </c>
-      <c r="K292" s="1">
-        <v>1</v>
-      </c>
+      <c r="K292" s="1"/>
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293">
@@ -10679,9 +10092,7 @@
       <c r="J293">
         <v>1</v>
       </c>
-      <c r="K293" s="1">
-        <v>1</v>
-      </c>
+      <c r="K293" s="1"/>
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294">
@@ -10714,9 +10125,7 @@
       <c r="J294">
         <v>3</v>
       </c>
-      <c r="K294" s="1">
-        <v>1</v>
-      </c>
+      <c r="K294" s="1"/>
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295">
@@ -10749,9 +10158,7 @@
       <c r="J295">
         <v>1</v>
       </c>
-      <c r="K295" s="1">
-        <v>1</v>
-      </c>
+      <c r="K295" s="1"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296">
@@ -10784,9 +10191,7 @@
       <c r="J296">
         <v>1</v>
       </c>
-      <c r="K296" s="1">
-        <v>1</v>
-      </c>
+      <c r="K296" s="1"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297">
@@ -10819,9 +10224,7 @@
       <c r="J297">
         <v>5</v>
       </c>
-      <c r="K297" s="1">
-        <v>1</v>
-      </c>
+      <c r="K297" s="1"/>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298">
@@ -10854,9 +10257,7 @@
       <c r="J298">
         <v>4</v>
       </c>
-      <c r="K298" s="1">
-        <v>1</v>
-      </c>
+      <c r="K298" s="1"/>
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299">
@@ -10889,9 +10290,7 @@
       <c r="J299">
         <v>5</v>
       </c>
-      <c r="K299" s="1">
-        <v>1</v>
-      </c>
+      <c r="K299" s="1"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300">
@@ -10924,9 +10323,7 @@
       <c r="J300">
         <v>1</v>
       </c>
-      <c r="K300" s="1">
-        <v>1</v>
-      </c>
+      <c r="K300" s="1"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301">
@@ -10959,9 +10356,7 @@
       <c r="J301">
         <v>3</v>
       </c>
-      <c r="K301" s="1">
-        <v>1</v>
-      </c>
+      <c r="K301" s="1"/>
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302">
@@ -10994,9 +10389,7 @@
       <c r="J302">
         <v>1</v>
       </c>
-      <c r="K302" s="1">
-        <v>1</v>
-      </c>
+      <c r="K302" s="1"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303">
@@ -11029,9 +10422,7 @@
       <c r="J303">
         <v>5</v>
       </c>
-      <c r="K303" s="1">
-        <v>1</v>
-      </c>
+      <c r="K303" s="1"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304">
@@ -11064,9 +10455,7 @@
       <c r="J304">
         <v>5</v>
       </c>
-      <c r="K304" s="1">
-        <v>1</v>
-      </c>
+      <c r="K304" s="1"/>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305">
@@ -11099,9 +10488,7 @@
       <c r="J305">
         <v>5</v>
       </c>
-      <c r="K305" s="1">
-        <v>1</v>
-      </c>
+      <c r="K305" s="1"/>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306">
@@ -11134,9 +10521,7 @@
       <c r="J306">
         <v>5</v>
       </c>
-      <c r="K306" s="1">
-        <v>1</v>
-      </c>
+      <c r="K306" s="1"/>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307">
@@ -11169,9 +10554,7 @@
       <c r="J307">
         <v>5</v>
       </c>
-      <c r="K307" s="1">
-        <v>1</v>
-      </c>
+      <c r="K307" s="1"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308">
@@ -11204,9 +10587,7 @@
       <c r="J308">
         <v>6</v>
       </c>
-      <c r="K308" s="1">
-        <v>1</v>
-      </c>
+      <c r="K308" s="1"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309">
@@ -11239,9 +10620,7 @@
       <c r="J309">
         <v>1</v>
       </c>
-      <c r="K309" s="1">
-        <v>1</v>
-      </c>
+      <c r="K309" s="1"/>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310">
@@ -11274,9 +10653,7 @@
       <c r="J310">
         <v>2</v>
       </c>
-      <c r="K310" s="1">
-        <v>1</v>
-      </c>
+      <c r="K310" s="1"/>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311">
@@ -11309,9 +10686,7 @@
       <c r="J311">
         <v>2</v>
       </c>
-      <c r="K311" s="1">
-        <v>1</v>
-      </c>
+      <c r="K311" s="1"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312">
@@ -11344,9 +10719,7 @@
       <c r="J312">
         <v>3</v>
       </c>
-      <c r="K312" s="1">
-        <v>1</v>
-      </c>
+      <c r="K312" s="1"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313">
@@ -11379,9 +10752,7 @@
       <c r="J313">
         <v>1</v>
       </c>
-      <c r="K313" s="1">
-        <v>1</v>
-      </c>
+      <c r="K313" s="1"/>
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314">
@@ -11414,9 +10785,7 @@
       <c r="J314">
         <v>3</v>
       </c>
-      <c r="K314" s="1">
-        <v>1</v>
-      </c>
+      <c r="K314" s="1"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315">
@@ -11449,9 +10818,7 @@
       <c r="J315">
         <v>1</v>
       </c>
-      <c r="K315" s="1">
-        <v>1</v>
-      </c>
+      <c r="K315" s="1"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316">
@@ -11484,9 +10851,7 @@
       <c r="J316">
         <v>5</v>
       </c>
-      <c r="K316" s="1">
-        <v>1</v>
-      </c>
+      <c r="K316" s="1"/>
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317">
@@ -11519,9 +10884,7 @@
       <c r="J317">
         <v>1</v>
       </c>
-      <c r="K317" s="1">
-        <v>1</v>
-      </c>
+      <c r="K317" s="1"/>
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318">
@@ -11554,9 +10917,7 @@
       <c r="J318">
         <v>5</v>
       </c>
-      <c r="K318" s="1">
-        <v>1</v>
-      </c>
+      <c r="K318" s="1"/>
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319">
@@ -11589,9 +10950,7 @@
       <c r="J319">
         <v>1</v>
       </c>
-      <c r="K319" s="1">
-        <v>1</v>
-      </c>
+      <c r="K319" s="1"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320">
@@ -11624,9 +10983,7 @@
       <c r="J320">
         <v>3</v>
       </c>
-      <c r="K320" s="1">
-        <v>1</v>
-      </c>
+      <c r="K320" s="1"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321">
@@ -11659,9 +11016,7 @@
       <c r="J321">
         <v>2</v>
       </c>
-      <c r="K321" s="1">
-        <v>1</v>
-      </c>
+      <c r="K321" s="1"/>
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322">
@@ -11694,9 +11049,7 @@
       <c r="J322">
         <v>1</v>
       </c>
-      <c r="K322" s="1">
-        <v>1</v>
-      </c>
+      <c r="K322" s="1"/>
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323">
@@ -11729,9 +11082,7 @@
       <c r="J323">
         <v>1</v>
       </c>
-      <c r="K323" s="1">
-        <v>1</v>
-      </c>
+      <c r="K323" s="1"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324">
@@ -11764,9 +11115,7 @@
       <c r="J324">
         <v>4</v>
       </c>
-      <c r="K324" s="1">
-        <v>1</v>
-      </c>
+      <c r="K324" s="1"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325">
@@ -11799,9 +11148,7 @@
       <c r="J325">
         <v>1</v>
       </c>
-      <c r="K325" s="1">
-        <v>1</v>
-      </c>
+      <c r="K325" s="1"/>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326">
@@ -11834,9 +11181,7 @@
       <c r="J326">
         <v>2</v>
       </c>
-      <c r="K326" s="1">
-        <v>1</v>
-      </c>
+      <c r="K326" s="1"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327">
@@ -11869,9 +11214,7 @@
       <c r="J327">
         <v>4</v>
       </c>
-      <c r="K327" s="1">
-        <v>1</v>
-      </c>
+      <c r="K327" s="1"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328">
@@ -11904,9 +11247,7 @@
       <c r="J328">
         <v>1</v>
       </c>
-      <c r="K328" s="1">
-        <v>1</v>
-      </c>
+      <c r="K328" s="1"/>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329">
@@ -11939,9 +11280,7 @@
       <c r="J329">
         <v>1</v>
       </c>
-      <c r="K329" s="1">
-        <v>1</v>
-      </c>
+      <c r="K329" s="1"/>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330">
@@ -11974,9 +11313,7 @@
       <c r="J330">
         <v>3</v>
       </c>
-      <c r="K330" s="1">
-        <v>1</v>
-      </c>
+      <c r="K330" s="1"/>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331">
@@ -12009,9 +11346,7 @@
       <c r="J331">
         <v>1</v>
       </c>
-      <c r="K331" s="1">
-        <v>1</v>
-      </c>
+      <c r="K331" s="1"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332">
@@ -12044,9 +11379,7 @@
       <c r="J332">
         <v>5</v>
       </c>
-      <c r="K332" s="1">
-        <v>1</v>
-      </c>
+      <c r="K332" s="1"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333">
@@ -12079,9 +11412,7 @@
       <c r="J333">
         <v>4</v>
       </c>
-      <c r="K333" s="1">
-        <v>1</v>
-      </c>
+      <c r="K333" s="1"/>
     </row>
     <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334">
@@ -12114,9 +11445,7 @@
       <c r="J334">
         <v>3</v>
       </c>
-      <c r="K334" s="1">
-        <v>1</v>
-      </c>
+      <c r="K334" s="1"/>
     </row>
     <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335">
@@ -12149,9 +11478,7 @@
       <c r="J335">
         <v>3</v>
       </c>
-      <c r="K335" s="1">
-        <v>1</v>
-      </c>
+      <c r="K335" s="1"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336">
@@ -12184,9 +11511,7 @@
       <c r="J336">
         <v>1</v>
       </c>
-      <c r="K336" s="1">
-        <v>1</v>
-      </c>
+      <c r="K336" s="1"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337">
@@ -12219,9 +11544,7 @@
       <c r="J337">
         <v>3</v>
       </c>
-      <c r="K337" s="1">
-        <v>1</v>
-      </c>
+      <c r="K337" s="1"/>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338">
@@ -12254,9 +11577,7 @@
       <c r="J338">
         <v>5</v>
       </c>
-      <c r="K338" s="1">
-        <v>1</v>
-      </c>
+      <c r="K338" s="1"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339">
@@ -12289,9 +11610,7 @@
       <c r="J339">
         <v>2</v>
       </c>
-      <c r="K339" s="1">
-        <v>1</v>
-      </c>
+      <c r="K339" s="1"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340">
@@ -12324,9 +11643,7 @@
       <c r="J340">
         <v>1</v>
       </c>
-      <c r="K340" s="1">
-        <v>1</v>
-      </c>
+      <c r="K340" s="1"/>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341">
@@ -12359,9 +11676,7 @@
       <c r="J341">
         <v>5</v>
       </c>
-      <c r="K341" s="1">
-        <v>1</v>
-      </c>
+      <c r="K341" s="1"/>
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342">
@@ -12394,9 +11709,7 @@
       <c r="J342">
         <v>3</v>
       </c>
-      <c r="K342" s="1">
-        <v>1</v>
-      </c>
+      <c r="K342" s="1"/>
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343">
@@ -12429,9 +11742,7 @@
       <c r="J343">
         <v>6</v>
       </c>
-      <c r="K343" s="1">
-        <v>1</v>
-      </c>
+      <c r="K343" s="1"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344">
@@ -12464,9 +11775,7 @@
       <c r="J344">
         <v>2</v>
       </c>
-      <c r="K344" s="1">
-        <v>1</v>
-      </c>
+      <c r="K344" s="1"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345">
@@ -12499,9 +11808,7 @@
       <c r="J345">
         <v>1</v>
       </c>
-      <c r="K345" s="1">
-        <v>1</v>
-      </c>
+      <c r="K345" s="1"/>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346">
@@ -12534,9 +11841,7 @@
       <c r="J346">
         <v>4</v>
       </c>
-      <c r="K346" s="1">
-        <v>1</v>
-      </c>
+      <c r="K346" s="1"/>
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347">
@@ -12569,9 +11874,7 @@
       <c r="J347">
         <v>5</v>
       </c>
-      <c r="K347" s="1">
-        <v>1</v>
-      </c>
+      <c r="K347" s="1"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348">
@@ -12604,9 +11907,7 @@
       <c r="J348">
         <v>4</v>
       </c>
-      <c r="K348" s="1">
-        <v>1</v>
-      </c>
+      <c r="K348" s="1"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349">
@@ -12639,9 +11940,7 @@
       <c r="J349">
         <v>1</v>
       </c>
-      <c r="K349" s="1">
-        <v>1</v>
-      </c>
+      <c r="K349" s="1"/>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350">
@@ -12674,9 +11973,7 @@
       <c r="J350">
         <v>2</v>
       </c>
-      <c r="K350" s="1">
-        <v>1</v>
-      </c>
+      <c r="K350" s="1"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351">
@@ -12709,9 +12006,7 @@
       <c r="J351">
         <v>1</v>
       </c>
-      <c r="K351" s="1">
-        <v>1</v>
-      </c>
+      <c r="K351" s="1"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352">
@@ -12744,9 +12039,7 @@
       <c r="J352">
         <v>3</v>
       </c>
-      <c r="K352" s="1">
-        <v>1</v>
-      </c>
+      <c r="K352" s="1"/>
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353">
@@ -12779,9 +12072,7 @@
       <c r="J353">
         <v>3</v>
       </c>
-      <c r="K353" s="1">
-        <v>1</v>
-      </c>
+      <c r="K353" s="1"/>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354">
@@ -12814,9 +12105,7 @@
       <c r="J354">
         <v>2</v>
       </c>
-      <c r="K354" s="1">
-        <v>1</v>
-      </c>
+      <c r="K354" s="1"/>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355">
@@ -12849,9 +12138,7 @@
       <c r="J355">
         <v>1</v>
       </c>
-      <c r="K355" s="1">
-        <v>1</v>
-      </c>
+      <c r="K355" s="1"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356">
@@ -12884,9 +12171,7 @@
       <c r="J356">
         <v>2</v>
       </c>
-      <c r="K356" s="1">
-        <v>1</v>
-      </c>
+      <c r="K356" s="1"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357">
@@ -12919,9 +12204,7 @@
       <c r="J357">
         <v>1</v>
       </c>
-      <c r="K357" s="1">
-        <v>1</v>
-      </c>
+      <c r="K357" s="1"/>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358">
@@ -12954,9 +12237,7 @@
       <c r="J358">
         <v>4</v>
       </c>
-      <c r="K358" s="1">
-        <v>1</v>
-      </c>
+      <c r="K358" s="1"/>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359">
@@ -12989,9 +12270,7 @@
       <c r="J359">
         <v>4</v>
       </c>
-      <c r="K359" s="1">
-        <v>1</v>
-      </c>
+      <c r="K359" s="1"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360">
@@ -13024,9 +12303,7 @@
       <c r="J360">
         <v>2</v>
       </c>
-      <c r="K360" s="1">
-        <v>1</v>
-      </c>
+      <c r="K360" s="1"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361">
@@ -13059,9 +12336,7 @@
       <c r="J361">
         <v>3</v>
       </c>
-      <c r="K361" s="1">
-        <v>1</v>
-      </c>
+      <c r="K361" s="1"/>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362">
@@ -13094,9 +12369,7 @@
       <c r="J362">
         <v>2</v>
       </c>
-      <c r="K362" s="1">
-        <v>1</v>
-      </c>
+      <c r="K362" s="1"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363">
@@ -13129,9 +12402,7 @@
       <c r="J363">
         <v>4</v>
       </c>
-      <c r="K363" s="1">
-        <v>1</v>
-      </c>
+      <c r="K363" s="1"/>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364">
@@ -13164,9 +12435,7 @@
       <c r="J364">
         <v>5</v>
       </c>
-      <c r="K364" s="1">
-        <v>1</v>
-      </c>
+      <c r="K364" s="1"/>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365">
@@ -13199,9 +12468,7 @@
       <c r="J365">
         <v>3</v>
       </c>
-      <c r="K365" s="1">
-        <v>1</v>
-      </c>
+      <c r="K365" s="1"/>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366">
@@ -13234,9 +12501,7 @@
       <c r="J366">
         <v>3</v>
       </c>
-      <c r="K366" s="1">
-        <v>1</v>
-      </c>
+      <c r="K366" s="1"/>
     </row>
     <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367">
@@ -13269,9 +12534,7 @@
       <c r="J367">
         <v>1</v>
       </c>
-      <c r="K367" s="1">
-        <v>1</v>
-      </c>
+      <c r="K367" s="1"/>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368">
@@ -13304,9 +12567,7 @@
       <c r="J368">
         <v>5</v>
       </c>
-      <c r="K368" s="1">
-        <v>1</v>
-      </c>
+      <c r="K368" s="1"/>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369">
@@ -13339,9 +12600,7 @@
       <c r="J369">
         <v>2</v>
       </c>
-      <c r="K369" s="1">
-        <v>1</v>
-      </c>
+      <c r="K369" s="1"/>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370">
@@ -13374,9 +12633,7 @@
       <c r="J370">
         <v>4</v>
       </c>
-      <c r="K370" s="1">
-        <v>1</v>
-      </c>
+      <c r="K370" s="1"/>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371">
@@ -13409,9 +12666,7 @@
       <c r="J371">
         <v>3</v>
       </c>
-      <c r="K371" s="1">
-        <v>1</v>
-      </c>
+      <c r="K371" s="1"/>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372">
@@ -13444,9 +12699,7 @@
       <c r="J372">
         <v>5</v>
       </c>
-      <c r="K372" s="1">
-        <v>1</v>
-      </c>
+      <c r="K372" s="1"/>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373">
@@ -13479,9 +12732,7 @@
       <c r="J373">
         <v>3</v>
       </c>
-      <c r="K373" s="1">
-        <v>1</v>
-      </c>
+      <c r="K373" s="1"/>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374">
@@ -13514,9 +12765,7 @@
       <c r="J374">
         <v>3</v>
       </c>
-      <c r="K374" s="1">
-        <v>1</v>
-      </c>
+      <c r="K374" s="1"/>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375">
@@ -13549,9 +12798,7 @@
       <c r="J375">
         <v>1</v>
       </c>
-      <c r="K375" s="1">
-        <v>1</v>
-      </c>
+      <c r="K375" s="1"/>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376">
@@ -13584,9 +12831,7 @@
       <c r="J376">
         <v>2</v>
       </c>
-      <c r="K376" s="1">
-        <v>1</v>
-      </c>
+      <c r="K376" s="1"/>
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377">
@@ -13619,9 +12864,7 @@
       <c r="J377">
         <v>3</v>
       </c>
-      <c r="K377" s="1">
-        <v>1</v>
-      </c>
+      <c r="K377" s="1"/>
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378">
@@ -13654,9 +12897,7 @@
       <c r="J378">
         <v>4</v>
       </c>
-      <c r="K378" s="1">
-        <v>1</v>
-      </c>
+      <c r="K378" s="1"/>
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379">
@@ -13689,9 +12930,7 @@
       <c r="J379">
         <v>5</v>
       </c>
-      <c r="K379" s="1">
-        <v>1</v>
-      </c>
+      <c r="K379" s="1"/>
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380">
@@ -13724,9 +12963,7 @@
       <c r="J380">
         <v>1</v>
       </c>
-      <c r="K380" s="1">
-        <v>1</v>
-      </c>
+      <c r="K380" s="1"/>
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381">
@@ -13759,9 +12996,7 @@
       <c r="J381">
         <v>2</v>
       </c>
-      <c r="K381" s="1">
-        <v>1</v>
-      </c>
+      <c r="K381" s="1"/>
     </row>
     <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382">
@@ -13794,9 +13029,7 @@
       <c r="J382">
         <v>4</v>
       </c>
-      <c r="K382" s="1">
-        <v>1</v>
-      </c>
+      <c r="K382" s="1"/>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383">
@@ -13829,9 +13062,7 @@
       <c r="J383">
         <v>5</v>
       </c>
-      <c r="K383" s="1">
-        <v>1</v>
-      </c>
+      <c r="K383" s="1"/>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384">
@@ -13864,9 +13095,7 @@
       <c r="J384">
         <v>1</v>
       </c>
-      <c r="K384" s="1">
-        <v>1</v>
-      </c>
+      <c r="K384" s="1"/>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385">
@@ -13899,9 +13128,7 @@
       <c r="J385">
         <v>2</v>
       </c>
-      <c r="K385" s="1">
-        <v>1</v>
-      </c>
+      <c r="K385" s="1"/>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386">
@@ -13934,9 +13161,7 @@
       <c r="J386">
         <v>3</v>
       </c>
-      <c r="K386" s="1">
-        <v>1</v>
-      </c>
+      <c r="K386" s="1"/>
     </row>
     <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387">
@@ -13969,9 +13194,7 @@
       <c r="J387">
         <v>1</v>
       </c>
-      <c r="K387" s="1">
-        <v>1</v>
-      </c>
+      <c r="K387" s="1"/>
     </row>
     <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388">
@@ -14004,9 +13227,7 @@
       <c r="J388">
         <v>1</v>
       </c>
-      <c r="K388" s="1">
-        <v>1</v>
-      </c>
+      <c r="K388" s="1"/>
     </row>
     <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389">
@@ -14039,9 +13260,7 @@
       <c r="J389">
         <v>3</v>
       </c>
-      <c r="K389" s="1">
-        <v>1</v>
-      </c>
+      <c r="K389" s="1"/>
     </row>
     <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390">
@@ -14074,9 +13293,7 @@
       <c r="J390">
         <v>5</v>
       </c>
-      <c r="K390" s="1">
-        <v>1</v>
-      </c>
+      <c r="K390" s="1"/>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391">
@@ -14109,9 +13326,7 @@
       <c r="J391">
         <v>3</v>
       </c>
-      <c r="K391" s="1">
-        <v>1</v>
-      </c>
+      <c r="K391" s="1"/>
     </row>
     <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392">
@@ -14144,9 +13359,7 @@
       <c r="J392">
         <v>6</v>
       </c>
-      <c r="K392" s="1">
-        <v>1</v>
-      </c>
+      <c r="K392" s="1"/>
     </row>
     <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393">
@@ -14179,9 +13392,7 @@
       <c r="J393">
         <v>4</v>
       </c>
-      <c r="K393" s="1">
-        <v>1</v>
-      </c>
+      <c r="K393" s="1"/>
     </row>
     <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394">
@@ -14214,9 +13425,7 @@
       <c r="J394">
         <v>1</v>
       </c>
-      <c r="K394" s="1">
-        <v>1</v>
-      </c>
+      <c r="K394" s="1"/>
     </row>
     <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395">
@@ -14249,9 +13458,7 @@
       <c r="J395">
         <v>2</v>
       </c>
-      <c r="K395" s="1">
-        <v>1</v>
-      </c>
+      <c r="K395" s="1"/>
     </row>
     <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396">
@@ -14284,9 +13491,7 @@
       <c r="J396">
         <v>2</v>
       </c>
-      <c r="K396" s="1">
-        <v>1</v>
-      </c>
+      <c r="K396" s="1"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397">
@@ -14319,9 +13524,7 @@
       <c r="J397">
         <v>2</v>
       </c>
-      <c r="K397" s="1">
-        <v>1</v>
-      </c>
+      <c r="K397" s="1"/>
     </row>
     <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398">
@@ -14354,9 +13557,7 @@
       <c r="J398">
         <v>1</v>
       </c>
-      <c r="K398" s="1">
-        <v>1</v>
-      </c>
+      <c r="K398" s="1"/>
     </row>
     <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399">
@@ -14389,9 +13590,7 @@
       <c r="J399">
         <v>4</v>
       </c>
-      <c r="K399" s="1">
-        <v>1</v>
-      </c>
+      <c r="K399" s="1"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400">
@@ -14424,9 +13623,7 @@
       <c r="J400">
         <v>1</v>
       </c>
-      <c r="K400" s="1">
-        <v>1</v>
-      </c>
+      <c r="K400" s="1"/>
     </row>
     <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401">
@@ -14459,9 +13656,7 @@
       <c r="J401">
         <v>1</v>
       </c>
-      <c r="K401" s="1">
-        <v>1</v>
-      </c>
+      <c r="K401" s="1"/>
     </row>
     <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402">
@@ -14494,9 +13689,7 @@
       <c r="J402">
         <v>1</v>
       </c>
-      <c r="K402" s="1">
-        <v>1</v>
-      </c>
+      <c r="K402" s="1"/>
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403">
@@ -14529,9 +13722,7 @@
       <c r="J403">
         <v>1</v>
       </c>
-      <c r="K403" s="1">
-        <v>1</v>
-      </c>
+      <c r="K403" s="1"/>
     </row>
     <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404">
@@ -14564,9 +13755,7 @@
       <c r="J404">
         <v>3</v>
       </c>
-      <c r="K404" s="1">
-        <v>1</v>
-      </c>
+      <c r="K404" s="1"/>
     </row>
     <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405">
@@ -14599,9 +13788,7 @@
       <c r="J405">
         <v>3</v>
       </c>
-      <c r="K405" s="1">
-        <v>1</v>
-      </c>
+      <c r="K405" s="1"/>
     </row>
     <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406">
@@ -14634,9 +13821,7 @@
       <c r="J406">
         <v>5</v>
       </c>
-      <c r="K406" s="1">
-        <v>1</v>
-      </c>
+      <c r="K406" s="1"/>
     </row>
     <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407">
@@ -14669,9 +13854,7 @@
       <c r="J407">
         <v>1</v>
       </c>
-      <c r="K407" s="1">
-        <v>1</v>
-      </c>
+      <c r="K407" s="1"/>
     </row>
     <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408">
@@ -14704,9 +13887,7 @@
       <c r="J408">
         <v>1</v>
       </c>
-      <c r="K408" s="1">
-        <v>1</v>
-      </c>
+      <c r="K408" s="1"/>
     </row>
     <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409">
@@ -14739,9 +13920,7 @@
       <c r="J409">
         <v>4</v>
       </c>
-      <c r="K409" s="1">
-        <v>1</v>
-      </c>
+      <c r="K409" s="1"/>
     </row>
     <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410">
@@ -14774,9 +13953,7 @@
       <c r="J410">
         <v>2</v>
       </c>
-      <c r="K410" s="1">
-        <v>1</v>
-      </c>
+      <c r="K410" s="1"/>
     </row>
     <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411">
@@ -14809,9 +13986,7 @@
       <c r="J411">
         <v>5</v>
       </c>
-      <c r="K411" s="1">
-        <v>1</v>
-      </c>
+      <c r="K411" s="1"/>
     </row>
     <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412">
@@ -14844,9 +14019,7 @@
       <c r="J412">
         <v>2</v>
       </c>
-      <c r="K412" s="1">
-        <v>1</v>
-      </c>
+      <c r="K412" s="1"/>
     </row>
     <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413">
@@ -14879,9 +14052,7 @@
       <c r="J413">
         <v>5</v>
       </c>
-      <c r="K413" s="1">
-        <v>1</v>
-      </c>
+      <c r="K413" s="1"/>
     </row>
     <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414">
@@ -14914,9 +14085,7 @@
       <c r="J414">
         <v>1</v>
       </c>
-      <c r="K414" s="1">
-        <v>1</v>
-      </c>
+      <c r="K414" s="1"/>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415">
@@ -14949,9 +14118,7 @@
       <c r="J415">
         <v>8</v>
       </c>
-      <c r="K415" s="1">
-        <v>1</v>
-      </c>
+      <c r="K415" s="1"/>
     </row>
     <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416">
@@ -14984,9 +14151,7 @@
       <c r="J416">
         <v>5</v>
       </c>
-      <c r="K416" s="1">
-        <v>1</v>
-      </c>
+      <c r="K416" s="1"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417">
@@ -15019,9 +14184,7 @@
       <c r="J417">
         <v>4</v>
       </c>
-      <c r="K417" s="1">
-        <v>1</v>
-      </c>
+      <c r="K417" s="1"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418">
@@ -15054,9 +14217,7 @@
       <c r="J418">
         <v>4</v>
       </c>
-      <c r="K418" s="1">
-        <v>1</v>
-      </c>
+      <c r="K418" s="1"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419">
@@ -15089,9 +14250,7 @@
       <c r="J419">
         <v>6</v>
       </c>
-      <c r="K419" s="1">
-        <v>1</v>
-      </c>
+      <c r="K419" s="1"/>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420">
@@ -15124,9 +14283,7 @@
       <c r="J420">
         <v>1</v>
       </c>
-      <c r="K420" s="1">
-        <v>1</v>
-      </c>
+      <c r="K420" s="1"/>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421">
@@ -15159,9 +14316,7 @@
       <c r="J421">
         <v>5</v>
       </c>
-      <c r="K421" s="1">
-        <v>1</v>
-      </c>
+      <c r="K421" s="1"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422">
@@ -15194,9 +14349,7 @@
       <c r="J422">
         <v>3</v>
       </c>
-      <c r="K422" s="1">
-        <v>1</v>
-      </c>
+      <c r="K422" s="1"/>
     </row>
     <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423">
@@ -15229,9 +14382,7 @@
       <c r="J423">
         <v>7</v>
       </c>
-      <c r="K423" s="1">
-        <v>1</v>
-      </c>
+      <c r="K423" s="1"/>
     </row>
     <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424">
@@ -15264,9 +14415,7 @@
       <c r="J424">
         <v>4</v>
       </c>
-      <c r="K424" s="1">
-        <v>1</v>
-      </c>
+      <c r="K424" s="1"/>
     </row>
     <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425">
@@ -15299,9 +14448,7 @@
       <c r="J425">
         <v>3</v>
       </c>
-      <c r="K425" s="1">
-        <v>1</v>
-      </c>
+      <c r="K425" s="1"/>
     </row>
     <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426">
@@ -15334,9 +14481,7 @@
       <c r="J426">
         <v>6</v>
       </c>
-      <c r="K426" s="1">
-        <v>1</v>
-      </c>
+      <c r="K426" s="1"/>
     </row>
     <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427">
@@ -15369,9 +14514,7 @@
       <c r="J427">
         <v>4</v>
       </c>
-      <c r="K427" s="1">
-        <v>1</v>
-      </c>
+      <c r="K427" s="1"/>
     </row>
     <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428">
@@ -15404,9 +14547,7 @@
       <c r="J428">
         <v>1</v>
       </c>
-      <c r="K428" s="1">
-        <v>1</v>
-      </c>
+      <c r="K428" s="1"/>
     </row>
     <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429">
@@ -15439,9 +14580,7 @@
       <c r="J429">
         <v>1</v>
       </c>
-      <c r="K429" s="1">
-        <v>1</v>
-      </c>
+      <c r="K429" s="1"/>
     </row>
     <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430">
@@ -15474,9 +14613,7 @@
       <c r="J430">
         <v>4</v>
       </c>
-      <c r="K430" s="1">
-        <v>1</v>
-      </c>
+      <c r="K430" s="1"/>
     </row>
     <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431">
@@ -15509,9 +14646,7 @@
       <c r="J431">
         <v>3</v>
       </c>
-      <c r="K431" s="1">
-        <v>1</v>
-      </c>
+      <c r="K431" s="1"/>
     </row>
     <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432">
@@ -15544,9 +14679,7 @@
       <c r="J432">
         <v>1</v>
       </c>
-      <c r="K432" s="1">
-        <v>1</v>
-      </c>
+      <c r="K432" s="1"/>
     </row>
     <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433">
@@ -15579,9 +14712,7 @@
       <c r="J433">
         <v>1</v>
       </c>
-      <c r="K433" s="1">
-        <v>1</v>
-      </c>
+      <c r="K433" s="1"/>
     </row>
     <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434">
@@ -15614,9 +14745,7 @@
       <c r="J434">
         <v>1</v>
       </c>
-      <c r="K434" s="1">
-        <v>1</v>
-      </c>
+      <c r="K434" s="1"/>
     </row>
     <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435">
@@ -15649,9 +14778,7 @@
       <c r="J435">
         <v>3</v>
       </c>
-      <c r="K435" s="1">
-        <v>1</v>
-      </c>
+      <c r="K435" s="1"/>
     </row>
     <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436">
@@ -15684,9 +14811,7 @@
       <c r="J436">
         <v>1</v>
       </c>
-      <c r="K436" s="1">
-        <v>1</v>
-      </c>
+      <c r="K436" s="1"/>
     </row>
     <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437">
@@ -15719,9 +14844,7 @@
       <c r="J437">
         <v>3</v>
       </c>
-      <c r="K437" s="1">
-        <v>1</v>
-      </c>
+      <c r="K437" s="1"/>
     </row>
     <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438">
@@ -15754,9 +14877,7 @@
       <c r="J438">
         <v>6</v>
       </c>
-      <c r="K438" s="1">
-        <v>1</v>
-      </c>
+      <c r="K438" s="1"/>
     </row>
     <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439">
@@ -15789,9 +14910,7 @@
       <c r="J439">
         <v>1</v>
       </c>
-      <c r="K439" s="1">
-        <v>1</v>
-      </c>
+      <c r="K439" s="1"/>
     </row>
     <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440">
@@ -15824,9 +14943,7 @@
       <c r="J440">
         <v>3</v>
       </c>
-      <c r="K440" s="1">
-        <v>1</v>
-      </c>
+      <c r="K440" s="1"/>
     </row>
     <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441">
@@ -15859,9 +14976,7 @@
       <c r="J441">
         <v>5</v>
       </c>
-      <c r="K441" s="1">
-        <v>1</v>
-      </c>
+      <c r="K441" s="1"/>
     </row>
     <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442">
@@ -15894,9 +15009,7 @@
       <c r="J442">
         <v>1</v>
       </c>
-      <c r="K442" s="1">
-        <v>1</v>
-      </c>
+      <c r="K442" s="1"/>
     </row>
     <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443">
@@ -15929,9 +15042,7 @@
       <c r="J443">
         <v>3</v>
       </c>
-      <c r="K443" s="1">
-        <v>1</v>
-      </c>
+      <c r="K443" s="1"/>
     </row>
     <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444">
@@ -15964,9 +15075,7 @@
       <c r="J444">
         <v>1</v>
       </c>
-      <c r="K444" s="1">
-        <v>1</v>
-      </c>
+      <c r="K444" s="1"/>
     </row>
     <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445">
@@ -15999,9 +15108,7 @@
       <c r="J445">
         <v>2</v>
       </c>
-      <c r="K445" s="1">
-        <v>1</v>
-      </c>
+      <c r="K445" s="1"/>
     </row>
     <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446">
@@ -16034,9 +15141,7 @@
       <c r="J446">
         <v>3</v>
       </c>
-      <c r="K446" s="1">
-        <v>1</v>
-      </c>
+      <c r="K446" s="1"/>
     </row>
     <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447">
@@ -16069,9 +15174,7 @@
       <c r="J447">
         <v>1</v>
       </c>
-      <c r="K447" s="1">
-        <v>1</v>
-      </c>
+      <c r="K447" s="1"/>
     </row>
     <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448">
@@ -16104,9 +15207,7 @@
       <c r="J448">
         <v>1</v>
       </c>
-      <c r="K448" s="1">
-        <v>1</v>
-      </c>
+      <c r="K448" s="1"/>
     </row>
     <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449">
@@ -16139,9 +15240,7 @@
       <c r="J449">
         <v>5</v>
       </c>
-      <c r="K449" s="1">
-        <v>1</v>
-      </c>
+      <c r="K449" s="1"/>
     </row>
     <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450">
@@ -16174,9 +15273,7 @@
       <c r="J450">
         <v>1</v>
       </c>
-      <c r="K450" s="1">
-        <v>1</v>
-      </c>
+      <c r="K450" s="1"/>
     </row>
     <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451">
@@ -16209,9 +15306,7 @@
       <c r="J451">
         <v>1</v>
       </c>
-      <c r="K451" s="1">
-        <v>1</v>
-      </c>
+      <c r="K451" s="1"/>
     </row>
     <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452">
@@ -16244,9 +15339,7 @@
       <c r="J452">
         <v>1</v>
       </c>
-      <c r="K452" s="1">
-        <v>1</v>
-      </c>
+      <c r="K452" s="1"/>
     </row>
     <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453">
@@ -16279,9 +15372,7 @@
       <c r="J453">
         <v>3</v>
       </c>
-      <c r="K453" s="1">
-        <v>1</v>
-      </c>
+      <c r="K453" s="1"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454">
@@ -16314,9 +15405,7 @@
       <c r="J454">
         <v>1</v>
       </c>
-      <c r="K454" s="1">
-        <v>1</v>
-      </c>
+      <c r="K454" s="1"/>
     </row>
     <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455">
@@ -16349,9 +15438,7 @@
       <c r="J455">
         <v>3</v>
       </c>
-      <c r="K455" s="1">
-        <v>1</v>
-      </c>
+      <c r="K455" s="1"/>
     </row>
     <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456">
@@ -16384,9 +15471,7 @@
       <c r="J456">
         <v>1</v>
       </c>
-      <c r="K456" s="1">
-        <v>1</v>
-      </c>
+      <c r="K456" s="1"/>
     </row>
     <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457">
@@ -16419,9 +15504,7 @@
       <c r="J457">
         <v>4</v>
       </c>
-      <c r="K457" s="1">
-        <v>1</v>
-      </c>
+      <c r="K457" s="1"/>
     </row>
     <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458">
@@ -16454,9 +15537,7 @@
       <c r="J458">
         <v>3</v>
       </c>
-      <c r="K458" s="1">
-        <v>1</v>
-      </c>
+      <c r="K458" s="1"/>
     </row>
     <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459">
@@ -16489,9 +15570,7 @@
       <c r="J459">
         <v>5</v>
       </c>
-      <c r="K459" s="1">
-        <v>1</v>
-      </c>
+      <c r="K459" s="1"/>
     </row>
     <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460">
@@ -16524,9 +15603,7 @@
       <c r="J460">
         <v>1</v>
       </c>
-      <c r="K460" s="1">
-        <v>1</v>
-      </c>
+      <c r="K460" s="1"/>
     </row>
     <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461">
@@ -16559,9 +15636,7 @@
       <c r="J461">
         <v>3</v>
       </c>
-      <c r="K461" s="1">
-        <v>1</v>
-      </c>
+      <c r="K461" s="1"/>
     </row>
     <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462">
@@ -16594,9 +15669,7 @@
       <c r="J462">
         <v>1</v>
       </c>
-      <c r="K462" s="1">
-        <v>1</v>
-      </c>
+      <c r="K462" s="1"/>
     </row>
     <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463">
@@ -16629,9 +15702,7 @@
       <c r="J463">
         <v>3</v>
       </c>
-      <c r="K463" s="1">
-        <v>1</v>
-      </c>
+      <c r="K463" s="1"/>
     </row>
     <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464">
@@ -16664,9 +15735,7 @@
       <c r="J464">
         <v>1</v>
       </c>
-      <c r="K464" s="1">
-        <v>1</v>
-      </c>
+      <c r="K464" s="1"/>
     </row>
     <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465">
@@ -16699,9 +15768,7 @@
       <c r="J465">
         <v>1</v>
       </c>
-      <c r="K465" s="1">
-        <v>1</v>
-      </c>
+      <c r="K465" s="1"/>
     </row>
     <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466">
@@ -16734,9 +15801,7 @@
       <c r="J466">
         <v>5</v>
       </c>
-      <c r="K466" s="1">
-        <v>1</v>
-      </c>
+      <c r="K466" s="1"/>
     </row>
     <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467">
@@ -16769,9 +15834,7 @@
       <c r="J467">
         <v>4</v>
       </c>
-      <c r="K467" s="1">
-        <v>1</v>
-      </c>
+      <c r="K467" s="1"/>
     </row>
     <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468">
@@ -16804,9 +15867,7 @@
       <c r="J468">
         <v>4</v>
       </c>
-      <c r="K468" s="1">
-        <v>1</v>
-      </c>
+      <c r="K468" s="1"/>
     </row>
     <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469">
@@ -16839,9 +15900,7 @@
       <c r="J469">
         <v>1</v>
       </c>
-      <c r="K469" s="1">
-        <v>1</v>
-      </c>
+      <c r="K469" s="1"/>
     </row>
     <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470">
@@ -16874,9 +15933,7 @@
       <c r="J470">
         <v>4</v>
       </c>
-      <c r="K470" s="1">
-        <v>1</v>
-      </c>
+      <c r="K470" s="1"/>
     </row>
     <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471">
@@ -16909,9 +15966,7 @@
       <c r="J471">
         <v>3</v>
       </c>
-      <c r="K471" s="1">
-        <v>1</v>
-      </c>
+      <c r="K471" s="1"/>
     </row>
     <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472">
@@ -16944,9 +15999,7 @@
       <c r="J472">
         <v>2</v>
       </c>
-      <c r="K472" s="1">
-        <v>1</v>
-      </c>
+      <c r="K472" s="1"/>
     </row>
     <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473">
@@ -16979,9 +16032,7 @@
       <c r="J473">
         <v>5</v>
       </c>
-      <c r="K473" s="1">
-        <v>1</v>
-      </c>
+      <c r="K473" s="1"/>
     </row>
     <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474">
@@ -17014,9 +16065,7 @@
       <c r="J474">
         <v>4</v>
       </c>
-      <c r="K474" s="1">
-        <v>1</v>
-      </c>
+      <c r="K474" s="1"/>
     </row>
     <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475">
@@ -17049,9 +16098,7 @@
       <c r="J475">
         <v>3</v>
       </c>
-      <c r="K475" s="1">
-        <v>1</v>
-      </c>
+      <c r="K475" s="1"/>
     </row>
     <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476">
@@ -17084,9 +16131,7 @@
       <c r="J476">
         <v>1</v>
       </c>
-      <c r="K476" s="1">
-        <v>1</v>
-      </c>
+      <c r="K476" s="1"/>
     </row>
     <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477">
@@ -17119,9 +16164,7 @@
       <c r="J477">
         <v>5</v>
       </c>
-      <c r="K477" s="1">
-        <v>1</v>
-      </c>
+      <c r="K477" s="1"/>
     </row>
     <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478">
@@ -17154,9 +16197,7 @@
       <c r="J478">
         <v>1</v>
       </c>
-      <c r="K478" s="1">
-        <v>1</v>
-      </c>
+      <c r="K478" s="1"/>
     </row>
     <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479">
@@ -17189,9 +16230,7 @@
       <c r="J479">
         <v>2</v>
       </c>
-      <c r="K479" s="1">
-        <v>1</v>
-      </c>
+      <c r="K479" s="1"/>
     </row>
     <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480">
@@ -17224,9 +16263,7 @@
       <c r="J480">
         <v>5</v>
       </c>
-      <c r="K480" s="1">
-        <v>1</v>
-      </c>
+      <c r="K480" s="1"/>
     </row>
     <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481">
@@ -17259,9 +16296,7 @@
       <c r="J481">
         <v>3</v>
       </c>
-      <c r="K481" s="1">
-        <v>1</v>
-      </c>
+      <c r="K481" s="1"/>
     </row>
     <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482">
@@ -17294,9 +16329,7 @@
       <c r="J482">
         <v>1</v>
       </c>
-      <c r="K482" s="1">
-        <v>1</v>
-      </c>
+      <c r="K482" s="1"/>
     </row>
     <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483">
@@ -17329,9 +16362,7 @@
       <c r="J483">
         <v>6</v>
       </c>
-      <c r="K483" s="1">
-        <v>1</v>
-      </c>
+      <c r="K483" s="1"/>
     </row>
     <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484">
@@ -17364,9 +16395,7 @@
       <c r="J484">
         <v>1</v>
       </c>
-      <c r="K484" s="1">
-        <v>1</v>
-      </c>
+      <c r="K484" s="1"/>
     </row>
     <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485">
@@ -17399,9 +16428,7 @@
       <c r="J485">
         <v>1</v>
       </c>
-      <c r="K485" s="1">
-        <v>1</v>
-      </c>
+      <c r="K485" s="1"/>
     </row>
     <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486">
@@ -17434,9 +16461,7 @@
       <c r="J486">
         <v>1</v>
       </c>
-      <c r="K486" s="1">
-        <v>1</v>
-      </c>
+      <c r="K486" s="1"/>
     </row>
     <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487">
@@ -17469,9 +16494,7 @@
       <c r="J487">
         <v>2</v>
       </c>
-      <c r="K487" s="1">
-        <v>1</v>
-      </c>
+      <c r="K487" s="1"/>
     </row>
     <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488">
@@ -17504,9 +16527,7 @@
       <c r="J488">
         <v>1</v>
       </c>
-      <c r="K488" s="1">
-        <v>1</v>
-      </c>
+      <c r="K488" s="1"/>
     </row>
     <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489">
@@ -17539,9 +16560,7 @@
       <c r="J489">
         <v>1</v>
       </c>
-      <c r="K489" s="1">
-        <v>1</v>
-      </c>
+      <c r="K489" s="1"/>
     </row>
     <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490">
@@ -17574,9 +16593,7 @@
       <c r="J490">
         <v>3</v>
       </c>
-      <c r="K490" s="1">
-        <v>1</v>
-      </c>
+      <c r="K490" s="1"/>
     </row>
     <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491">
@@ -17609,9 +16626,7 @@
       <c r="J491">
         <v>5</v>
       </c>
-      <c r="K491" s="1">
-        <v>1</v>
-      </c>
+      <c r="K491" s="1"/>
     </row>
     <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492">
@@ -17644,9 +16659,7 @@
       <c r="J492">
         <v>4</v>
       </c>
-      <c r="K492" s="1">
-        <v>1</v>
-      </c>
+      <c r="K492" s="1"/>
     </row>
     <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493">
@@ -17679,9 +16692,7 @@
       <c r="J493">
         <v>3</v>
       </c>
-      <c r="K493" s="1">
-        <v>1</v>
-      </c>
+      <c r="K493" s="1"/>
     </row>
     <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494">
@@ -17714,9 +16725,7 @@
       <c r="J494">
         <v>3</v>
       </c>
-      <c r="K494" s="1">
-        <v>1</v>
-      </c>
+      <c r="K494" s="1"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495">
@@ -17749,9 +16758,7 @@
       <c r="J495">
         <v>3</v>
       </c>
-      <c r="K495" s="1">
-        <v>1</v>
-      </c>
+      <c r="K495" s="1"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496">
@@ -17784,9 +16791,7 @@
       <c r="J496">
         <v>5</v>
       </c>
-      <c r="K496" s="1">
-        <v>1</v>
-      </c>
+      <c r="K496" s="1"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497">
@@ -17819,9 +16824,7 @@
       <c r="J497">
         <v>5</v>
       </c>
-      <c r="K497" s="1">
-        <v>1</v>
-      </c>
+      <c r="K497" s="1"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498">
@@ -17854,9 +16857,7 @@
       <c r="J498">
         <v>1</v>
       </c>
-      <c r="K498" s="1">
-        <v>1</v>
-      </c>
+      <c r="K498" s="1"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499">
@@ -17889,9 +16890,7 @@
       <c r="J499">
         <v>5</v>
       </c>
-      <c r="K499" s="1">
-        <v>1</v>
-      </c>
+      <c r="K499" s="1"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500">
@@ -17924,9 +16923,7 @@
       <c r="J500">
         <v>1</v>
       </c>
-      <c r="K500" s="1">
-        <v>1</v>
-      </c>
+      <c r="K500" s="1"/>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501">
@@ -17959,9 +16956,7 @@
       <c r="J501">
         <v>1</v>
       </c>
-      <c r="K501" s="1">
-        <v>1</v>
-      </c>
+      <c r="K501" s="1"/>
     </row>
     <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502">
@@ -17994,9 +16989,7 @@
       <c r="J502">
         <v>4</v>
       </c>
-      <c r="K502" s="1">
-        <v>1</v>
-      </c>
+      <c r="K502" s="1"/>
     </row>
     <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503">
@@ -18029,9 +17022,7 @@
       <c r="J503">
         <v>3</v>
       </c>
-      <c r="K503" s="1">
-        <v>1</v>
-      </c>
+      <c r="K503" s="1"/>
     </row>
     <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504">
@@ -18064,9 +17055,7 @@
       <c r="J504">
         <v>1</v>
       </c>
-      <c r="K504" s="1">
-        <v>1</v>
-      </c>
+      <c r="K504" s="1"/>
     </row>
     <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505">
@@ -18099,9 +17088,7 @@
       <c r="J505">
         <v>3</v>
       </c>
-      <c r="K505" s="1">
-        <v>1</v>
-      </c>
+      <c r="K505" s="1"/>
     </row>
     <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506">
@@ -18134,9 +17121,7 @@
       <c r="J506">
         <v>6</v>
       </c>
-      <c r="K506" s="1">
-        <v>1</v>
-      </c>
+      <c r="K506" s="1"/>
     </row>
     <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507">
@@ -18169,9 +17154,7 @@
       <c r="J507">
         <v>4</v>
       </c>
-      <c r="K507" s="1">
-        <v>1</v>
-      </c>
+      <c r="K507" s="1"/>
     </row>
     <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508">
@@ -18204,9 +17187,7 @@
       <c r="J508">
         <v>1</v>
       </c>
-      <c r="K508" s="1">
-        <v>1</v>
-      </c>
+      <c r="K508" s="1"/>
     </row>
     <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509">
@@ -18239,9 +17220,7 @@
       <c r="J509">
         <v>3</v>
       </c>
-      <c r="K509" s="1">
-        <v>1</v>
-      </c>
+      <c r="K509" s="1"/>
     </row>
     <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510">
@@ -18274,9 +17253,7 @@
       <c r="J510">
         <v>1</v>
       </c>
-      <c r="K510" s="1">
-        <v>1</v>
-      </c>
+      <c r="K510" s="1"/>
     </row>
     <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511">
@@ -18309,9 +17286,7 @@
       <c r="J511">
         <v>2</v>
       </c>
-      <c r="K511" s="1">
-        <v>1</v>
-      </c>
+      <c r="K511" s="1"/>
     </row>
     <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512">
@@ -18344,9 +17319,7 @@
       <c r="J512">
         <v>5</v>
       </c>
-      <c r="K512" s="1">
-        <v>1</v>
-      </c>
+      <c r="K512" s="1"/>
     </row>
     <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513">
@@ -18379,9 +17352,7 @@
       <c r="J513">
         <v>4</v>
       </c>
-      <c r="K513" s="1">
-        <v>1</v>
-      </c>
+      <c r="K513" s="1"/>
     </row>
     <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514">
@@ -18414,9 +17385,7 @@
       <c r="J514">
         <v>2</v>
       </c>
-      <c r="K514" s="1">
-        <v>1</v>
-      </c>
+      <c r="K514" s="1"/>
     </row>
     <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515">
@@ -18449,9 +17418,7 @@
       <c r="J515">
         <v>1</v>
       </c>
-      <c r="K515" s="1">
-        <v>1</v>
-      </c>
+      <c r="K515" s="1"/>
     </row>
     <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516">
@@ -18484,9 +17451,7 @@
       <c r="J516">
         <v>1</v>
       </c>
-      <c r="K516" s="1">
-        <v>1</v>
-      </c>
+      <c r="K516" s="1"/>
     </row>
     <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517">
@@ -18519,9 +17484,7 @@
       <c r="J517">
         <v>1</v>
       </c>
-      <c r="K517" s="1">
-        <v>1</v>
-      </c>
+      <c r="K517" s="1"/>
     </row>
     <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518">
@@ -18554,9 +17517,7 @@
       <c r="J518">
         <v>1</v>
       </c>
-      <c r="K518" s="1">
-        <v>1</v>
-      </c>
+      <c r="K518" s="1"/>
     </row>
     <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519">
@@ -18589,9 +17550,7 @@
       <c r="J519">
         <v>1</v>
       </c>
-      <c r="K519" s="1">
-        <v>1</v>
-      </c>
+      <c r="K519" s="1"/>
     </row>
     <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520">
@@ -18624,9 +17583,7 @@
       <c r="J520">
         <v>3</v>
       </c>
-      <c r="K520" s="1">
-        <v>1</v>
-      </c>
+      <c r="K520" s="1"/>
     </row>
     <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521">
@@ -18659,9 +17616,7 @@
       <c r="J521">
         <v>3</v>
       </c>
-      <c r="K521" s="1">
-        <v>1</v>
-      </c>
+      <c r="K521" s="1"/>
     </row>
     <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522">
@@ -18694,9 +17649,7 @@
       <c r="J522">
         <v>1</v>
       </c>
-      <c r="K522" s="1">
-        <v>1</v>
-      </c>
+      <c r="K522" s="1"/>
     </row>
     <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523">
@@ -18729,9 +17682,7 @@
       <c r="J523">
         <v>1</v>
       </c>
-      <c r="K523" s="1">
-        <v>1</v>
-      </c>
+      <c r="K523" s="1"/>
     </row>
     <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524">
@@ -18764,9 +17715,7 @@
       <c r="J524">
         <v>1</v>
       </c>
-      <c r="K524" s="1">
-        <v>1</v>
-      </c>
+      <c r="K524" s="1"/>
     </row>
     <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525">
@@ -18799,9 +17748,7 @@
       <c r="J525">
         <v>3</v>
       </c>
-      <c r="K525" s="1">
-        <v>1</v>
-      </c>
+      <c r="K525" s="1"/>
     </row>
     <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526">
@@ -18834,9 +17781,7 @@
       <c r="J526">
         <v>5</v>
       </c>
-      <c r="K526" s="1">
-        <v>1</v>
-      </c>
+      <c r="K526" s="1"/>
     </row>
     <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527">
@@ -18869,9 +17814,7 @@
       <c r="J527">
         <v>8</v>
       </c>
-      <c r="K527" s="1">
-        <v>1</v>
-      </c>
+      <c r="K527" s="1"/>
     </row>
     <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528">
@@ -18904,9 +17847,7 @@
       <c r="J528">
         <v>1</v>
       </c>
-      <c r="K528" s="1">
-        <v>1</v>
-      </c>
+      <c r="K528" s="1"/>
     </row>
     <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529">
@@ -18939,9 +17880,7 @@
       <c r="J529">
         <v>3</v>
       </c>
-      <c r="K529" s="1">
-        <v>1</v>
-      </c>
+      <c r="K529" s="1"/>
     </row>
     <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530">
@@ -18974,9 +17913,7 @@
       <c r="J530">
         <v>1</v>
       </c>
-      <c r="K530" s="1">
-        <v>1</v>
-      </c>
+      <c r="K530" s="1"/>
     </row>
     <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531">
@@ -19009,9 +17946,7 @@
       <c r="J531">
         <v>1</v>
       </c>
-      <c r="K531" s="1">
-        <v>1</v>
-      </c>
+      <c r="K531" s="1"/>
     </row>
     <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532">
@@ -19044,9 +17979,7 @@
       <c r="J532">
         <v>4</v>
       </c>
-      <c r="K532" s="1">
-        <v>1</v>
-      </c>
+      <c r="K532" s="1"/>
     </row>
     <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533">
@@ -19079,9 +18012,7 @@
       <c r="J533">
         <v>2</v>
       </c>
-      <c r="K533" s="1">
-        <v>1</v>
-      </c>
+      <c r="K533" s="1"/>
     </row>
     <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534">
@@ -19114,9 +18045,7 @@
       <c r="J534">
         <v>4</v>
       </c>
-      <c r="K534" s="1">
-        <v>1</v>
-      </c>
+      <c r="K534" s="1"/>
     </row>
     <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535">
@@ -19149,9 +18078,7 @@
       <c r="J535">
         <v>4</v>
       </c>
-      <c r="K535" s="1">
-        <v>1</v>
-      </c>
+      <c r="K535" s="1"/>
     </row>
     <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536">
@@ -19184,9 +18111,7 @@
       <c r="J536">
         <v>3</v>
       </c>
-      <c r="K536" s="1">
-        <v>1</v>
-      </c>
+      <c r="K536" s="1"/>
     </row>
     <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537">
@@ -19219,9 +18144,7 @@
       <c r="J537">
         <v>1</v>
       </c>
-      <c r="K537" s="1">
-        <v>1</v>
-      </c>
+      <c r="K537" s="1"/>
     </row>
     <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538">
@@ -19254,9 +18177,7 @@
       <c r="J538">
         <v>2</v>
       </c>
-      <c r="K538" s="1">
-        <v>1</v>
-      </c>
+      <c r="K538" s="1"/>
     </row>
     <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539">
@@ -19289,9 +18210,7 @@
       <c r="J539">
         <v>5</v>
       </c>
-      <c r="K539" s="1">
-        <v>1</v>
-      </c>
+      <c r="K539" s="1"/>
     </row>
     <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540">
@@ -19324,9 +18243,7 @@
       <c r="J540">
         <v>6</v>
       </c>
-      <c r="K540" s="1">
-        <v>1</v>
-      </c>
+      <c r="K540" s="1"/>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541">
@@ -19359,9 +18276,7 @@
       <c r="J541">
         <v>1</v>
       </c>
-      <c r="K541" s="1">
-        <v>1</v>
-      </c>
+      <c r="K541" s="1"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542">
@@ -19394,9 +18309,7 @@
       <c r="J542">
         <v>3</v>
       </c>
-      <c r="K542" s="1">
-        <v>1</v>
-      </c>
+      <c r="K542" s="1"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543">
@@ -19429,9 +18342,7 @@
       <c r="J543">
         <v>2</v>
       </c>
-      <c r="K543" s="1">
-        <v>1</v>
-      </c>
+      <c r="K543" s="1"/>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544">
@@ -19464,9 +18375,7 @@
       <c r="J544">
         <v>4</v>
       </c>
-      <c r="K544" s="1">
-        <v>1</v>
-      </c>
+      <c r="K544" s="1"/>
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545">
@@ -19499,9 +18408,7 @@
       <c r="J545">
         <v>5</v>
       </c>
-      <c r="K545" s="1">
-        <v>1</v>
-      </c>
+      <c r="K545" s="1"/>
     </row>
     <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546">
@@ -19534,9 +18441,7 @@
       <c r="J546">
         <v>4</v>
       </c>
-      <c r="K546" s="1">
-        <v>1</v>
-      </c>
+      <c r="K546" s="1"/>
     </row>
     <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547">
@@ -19569,9 +18474,7 @@
       <c r="J547">
         <v>1</v>
       </c>
-      <c r="K547" s="1">
-        <v>1</v>
-      </c>
+      <c r="K547" s="1"/>
     </row>
     <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548">
@@ -19604,9 +18507,7 @@
       <c r="J548">
         <v>3</v>
       </c>
-      <c r="K548" s="1">
-        <v>1</v>
-      </c>
+      <c r="K548" s="1"/>
     </row>
     <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549">
@@ -19639,9 +18540,7 @@
       <c r="J549">
         <v>1</v>
       </c>
-      <c r="K549" s="1">
-        <v>1</v>
-      </c>
+      <c r="K549" s="1"/>
     </row>
     <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550">
@@ -19674,9 +18573,7 @@
       <c r="J550">
         <v>3</v>
       </c>
-      <c r="K550" s="1">
-        <v>1</v>
-      </c>
+      <c r="K550" s="1"/>
     </row>
     <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551">
@@ -19709,9 +18606,7 @@
       <c r="J551">
         <v>3</v>
       </c>
-      <c r="K551" s="1">
-        <v>1</v>
-      </c>
+      <c r="K551" s="1"/>
     </row>
     <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552">
@@ -19744,9 +18639,7 @@
       <c r="J552">
         <v>3</v>
       </c>
-      <c r="K552" s="1">
-        <v>1</v>
-      </c>
+      <c r="K552" s="1"/>
     </row>
     <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553">
@@ -19779,9 +18672,7 @@
       <c r="J553">
         <v>2</v>
       </c>
-      <c r="K553" s="1">
-        <v>1</v>
-      </c>
+      <c r="K553" s="1"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554">
@@ -19814,9 +18705,7 @@
       <c r="J554">
         <v>1</v>
       </c>
-      <c r="K554" s="1">
-        <v>1</v>
-      </c>
+      <c r="K554" s="1"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555">
@@ -19849,9 +18738,7 @@
       <c r="J555">
         <v>1</v>
       </c>
-      <c r="K555" s="1">
-        <v>1</v>
-      </c>
+      <c r="K555" s="1"/>
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556">
@@ -19884,9 +18771,7 @@
       <c r="J556">
         <v>1</v>
       </c>
-      <c r="K556" s="1">
-        <v>1</v>
-      </c>
+      <c r="K556" s="1"/>
     </row>
     <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557">
@@ -19919,9 +18804,7 @@
       <c r="J557">
         <v>4</v>
       </c>
-      <c r="K557" s="1">
-        <v>1</v>
-      </c>
+      <c r="K557" s="1"/>
     </row>
     <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558">
@@ -19954,9 +18837,7 @@
       <c r="J558">
         <v>5</v>
       </c>
-      <c r="K558" s="1">
-        <v>1</v>
-      </c>
+      <c r="K558" s="1"/>
     </row>
     <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559">
@@ -19989,9 +18870,7 @@
       <c r="J559">
         <v>4</v>
       </c>
-      <c r="K559" s="1">
-        <v>1</v>
-      </c>
+      <c r="K559" s="1"/>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560">
@@ -20024,9 +18903,7 @@
       <c r="J560">
         <v>3</v>
       </c>
-      <c r="K560" s="1">
-        <v>1</v>
-      </c>
+      <c r="K560" s="1"/>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561">
@@ -20059,9 +18936,7 @@
       <c r="J561">
         <v>3</v>
       </c>
-      <c r="K561" s="1">
-        <v>1</v>
-      </c>
+      <c r="K561" s="1"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562">
@@ -20094,9 +18969,7 @@
       <c r="J562">
         <v>4</v>
       </c>
-      <c r="K562" s="1">
-        <v>1</v>
-      </c>
+      <c r="K562" s="1"/>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563">
@@ -20129,9 +19002,7 @@
       <c r="J563">
         <v>1</v>
       </c>
-      <c r="K563" s="1">
-        <v>1</v>
-      </c>
+      <c r="K563" s="1"/>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564">
@@ -20164,9 +19035,7 @@
       <c r="J564">
         <v>5</v>
       </c>
-      <c r="K564" s="1">
-        <v>1</v>
-      </c>
+      <c r="K564" s="1"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565">
@@ -20199,9 +19068,7 @@
       <c r="J565">
         <v>10</v>
       </c>
-      <c r="K565" s="1">
-        <v>1</v>
-      </c>
+      <c r="K565" s="1"/>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566">
@@ -20234,9 +19101,7 @@
       <c r="J566">
         <v>10</v>
       </c>
-      <c r="K566" s="1">
-        <v>1</v>
-      </c>
+      <c r="K566" s="1"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567">
@@ -20269,9 +19134,7 @@
       <c r="J567">
         <v>10</v>
       </c>
-      <c r="K567" s="1">
-        <v>1</v>
-      </c>
+      <c r="K567" s="1"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568">
@@ -20304,9 +19167,7 @@
       <c r="J568">
         <v>10</v>
       </c>
-      <c r="K568" s="1">
-        <v>1</v>
-      </c>
+      <c r="K568" s="1"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569">
@@ -20339,9 +19200,7 @@
       <c r="J569">
         <v>7</v>
       </c>
-      <c r="K569" s="1">
-        <v>1</v>
-      </c>
+      <c r="K569" s="1"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570">
@@ -20374,9 +19233,7 @@
       <c r="J570">
         <v>10</v>
       </c>
-      <c r="K570" s="1">
-        <v>1</v>
-      </c>
+      <c r="K570" s="1"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571">
@@ -20409,9 +19266,7 @@
       <c r="J571">
         <v>5</v>
       </c>
-      <c r="K571" s="1">
-        <v>1</v>
-      </c>
+      <c r="K571" s="1"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572">
@@ -20444,9 +19299,7 @@
       <c r="J572">
         <v>5</v>
       </c>
-      <c r="K572" s="1">
-        <v>1</v>
-      </c>
+      <c r="K572" s="1"/>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573">
@@ -20479,9 +19332,7 @@
       <c r="J573">
         <v>4</v>
       </c>
-      <c r="K573" s="1">
-        <v>1</v>
-      </c>
+      <c r="K573" s="1"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574">
@@ -20514,9 +19365,7 @@
       <c r="J574">
         <v>3</v>
       </c>
-      <c r="K574" s="1">
-        <v>1</v>
-      </c>
+      <c r="K574" s="1"/>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575">
@@ -20549,9 +19398,7 @@
       <c r="J575">
         <v>5</v>
       </c>
-      <c r="K575" s="1">
-        <v>1</v>
-      </c>
+      <c r="K575" s="1"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576">
@@ -20584,9 +19431,7 @@
       <c r="J576">
         <v>5</v>
       </c>
-      <c r="K576" s="1">
-        <v>1</v>
-      </c>
+      <c r="K576" s="1"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577">
@@ -20619,9 +19464,7 @@
       <c r="J577">
         <v>5</v>
       </c>
-      <c r="K577" s="1">
-        <v>1</v>
-      </c>
+      <c r="K577" s="1"/>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578">
@@ -20654,9 +19497,7 @@
       <c r="J578">
         <v>8</v>
       </c>
-      <c r="K578" s="1">
-        <v>1</v>
-      </c>
+      <c r="K578" s="1"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579">
@@ -20689,9 +19530,7 @@
       <c r="J579">
         <v>7</v>
       </c>
-      <c r="K579" s="1">
-        <v>1</v>
-      </c>
+      <c r="K579" s="1"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580">
@@ -20724,9 +19563,7 @@
       <c r="J580">
         <v>7</v>
       </c>
-      <c r="K580" s="1">
-        <v>1</v>
-      </c>
+      <c r="K580" s="1"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581">
@@ -20759,9 +19596,7 @@
       <c r="J581">
         <v>5</v>
       </c>
-      <c r="K581" s="1">
-        <v>1</v>
-      </c>
+      <c r="K581" s="1"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582">
@@ -20794,9 +19629,7 @@
       <c r="J582">
         <v>10</v>
       </c>
-      <c r="K582" s="1">
-        <v>1</v>
-      </c>
+      <c r="K582" s="1"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583">
@@ -20829,9 +19662,7 @@
       <c r="J583">
         <v>4</v>
       </c>
-      <c r="K583" s="1">
-        <v>1</v>
-      </c>
+      <c r="K583" s="1"/>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584">
@@ -20864,9 +19695,7 @@
       <c r="J584">
         <v>5</v>
       </c>
-      <c r="K584" s="1">
-        <v>1</v>
-      </c>
+      <c r="K584" s="1"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585">
@@ -20899,9 +19728,7 @@
       <c r="J585">
         <v>4</v>
       </c>
-      <c r="K585" s="1">
-        <v>1</v>
-      </c>
+      <c r="K585" s="1"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586">
@@ -20934,9 +19761,7 @@
       <c r="J586">
         <v>1</v>
       </c>
-      <c r="K586" s="1">
-        <v>1</v>
-      </c>
+      <c r="K586" s="1"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587">
@@ -20969,9 +19794,7 @@
       <c r="J587">
         <v>8</v>
       </c>
-      <c r="K587" s="1">
-        <v>1</v>
-      </c>
+      <c r="K587" s="1"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588">
@@ -21004,9 +19827,7 @@
       <c r="J588">
         <v>7</v>
       </c>
-      <c r="K588" s="1">
-        <v>1</v>
-      </c>
+      <c r="K588" s="1"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589">
@@ -21039,9 +19860,7 @@
       <c r="J589">
         <v>10</v>
       </c>
-      <c r="K589" s="1">
-        <v>1</v>
-      </c>
+      <c r="K589" s="1"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590">
@@ -21074,9 +19893,7 @@
       <c r="J590">
         <v>3</v>
       </c>
-      <c r="K590" s="1">
-        <v>1</v>
-      </c>
+      <c r="K590" s="1"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591">
@@ -21109,9 +19926,7 @@
       <c r="J591">
         <v>10</v>
       </c>
-      <c r="K591" s="1">
-        <v>1</v>
-      </c>
+      <c r="K591" s="1"/>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592">
@@ -21144,9 +19959,7 @@
       <c r="J592">
         <v>5</v>
       </c>
-      <c r="K592" s="1">
-        <v>1</v>
-      </c>
+      <c r="K592" s="1"/>
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593">
@@ -21179,9 +19992,7 @@
       <c r="J593">
         <v>10</v>
       </c>
-      <c r="K593" s="1">
-        <v>1</v>
-      </c>
+      <c r="K593" s="1"/>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594">
@@ -21214,9 +20025,7 @@
       <c r="J594">
         <v>10</v>
       </c>
-      <c r="K594" s="1">
-        <v>1</v>
-      </c>
+      <c r="K594" s="1"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595">
@@ -21249,9 +20058,7 @@
       <c r="J595">
         <v>10</v>
       </c>
-      <c r="K595" s="1">
-        <v>1</v>
-      </c>
+      <c r="K595" s="1"/>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596">
@@ -21284,9 +20091,7 @@
       <c r="J596">
         <v>8</v>
       </c>
-      <c r="K596" s="1">
-        <v>1</v>
-      </c>
+      <c r="K596" s="1"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597">
@@ -21319,9 +20124,7 @@
       <c r="J597">
         <v>5</v>
       </c>
-      <c r="K597" s="1">
-        <v>1</v>
-      </c>
+      <c r="K597" s="1"/>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598">
@@ -21354,9 +20157,7 @@
       <c r="J598">
         <v>9</v>
       </c>
-      <c r="K598" s="1">
-        <v>1</v>
-      </c>
+      <c r="K598" s="1"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599">
@@ -21389,9 +20190,7 @@
       <c r="J599">
         <v>10</v>
       </c>
-      <c r="K599" s="1">
-        <v>1</v>
-      </c>
+      <c r="K599" s="1"/>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600">
@@ -21424,9 +20223,7 @@
       <c r="J600">
         <v>6</v>
       </c>
-      <c r="K600" s="1">
-        <v>1</v>
-      </c>
+      <c r="K600" s="1"/>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601">
@@ -21459,9 +20256,7 @@
       <c r="J601">
         <v>5</v>
       </c>
-      <c r="K601" s="1">
-        <v>1</v>
-      </c>
+      <c r="K601" s="1"/>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602">
@@ -21494,9 +20289,7 @@
       <c r="J602">
         <v>8</v>
       </c>
-      <c r="K602" s="1">
-        <v>1</v>
-      </c>
+      <c r="K602" s="1"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603">
@@ -21529,9 +20322,7 @@
       <c r="J603">
         <v>10</v>
       </c>
-      <c r="K603" s="1">
-        <v>1</v>
-      </c>
+      <c r="K603" s="1"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604">
@@ -21564,9 +20355,7 @@
       <c r="J604">
         <v>9</v>
       </c>
-      <c r="K604" s="1">
-        <v>1</v>
-      </c>
+      <c r="K604" s="1"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605">
@@ -21599,9 +20388,7 @@
       <c r="J605">
         <v>10</v>
       </c>
-      <c r="K605" s="1">
-        <v>1</v>
-      </c>
+      <c r="K605" s="1"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606">
@@ -21634,9 +20421,7 @@
       <c r="J606">
         <v>6</v>
       </c>
-      <c r="K606" s="1">
-        <v>1</v>
-      </c>
+      <c r="K606" s="1"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607">
@@ -21669,9 +20454,7 @@
       <c r="J607">
         <v>2</v>
       </c>
-      <c r="K607" s="1">
-        <v>1</v>
-      </c>
+      <c r="K607" s="1"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608">
@@ -21704,9 +20487,7 @@
       <c r="J608">
         <v>10</v>
       </c>
-      <c r="K608" s="1">
-        <v>1</v>
-      </c>
+      <c r="K608" s="1"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609">
@@ -21739,9 +20520,7 @@
       <c r="J609">
         <v>9</v>
       </c>
-      <c r="K609" s="1">
-        <v>1</v>
-      </c>
+      <c r="K609" s="1"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610">
@@ -21774,9 +20553,7 @@
       <c r="J610">
         <v>8</v>
       </c>
-      <c r="K610" s="1">
-        <v>1</v>
-      </c>
+      <c r="K610" s="1"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611">
@@ -21809,9 +20586,7 @@
       <c r="J611">
         <v>7</v>
       </c>
-      <c r="K611" s="1">
-        <v>1</v>
-      </c>
+      <c r="K611" s="1"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612">
@@ -21844,9 +20619,7 @@
       <c r="J612">
         <v>5</v>
       </c>
-      <c r="K612" s="1">
-        <v>1</v>
-      </c>
+      <c r="K612" s="1"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613">
@@ -21879,9 +20652,7 @@
       <c r="J613">
         <v>10</v>
       </c>
-      <c r="K613" s="1">
-        <v>1</v>
-      </c>
+      <c r="K613" s="1"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614">
@@ -21914,9 +20685,7 @@
       <c r="J614">
         <v>3</v>
       </c>
-      <c r="K614" s="1">
-        <v>1</v>
-      </c>
+      <c r="K614" s="1"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615">
@@ -21949,9 +20718,7 @@
       <c r="J615">
         <v>4</v>
       </c>
-      <c r="K615" s="1">
-        <v>1</v>
-      </c>
+      <c r="K615" s="1"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616">
@@ -21984,9 +20751,7 @@
       <c r="J616">
         <v>7</v>
       </c>
-      <c r="K616" s="1">
-        <v>1</v>
-      </c>
+      <c r="K616" s="1"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617">
@@ -22019,9 +20784,7 @@
       <c r="J617">
         <v>8</v>
       </c>
-      <c r="K617" s="1">
-        <v>1</v>
-      </c>
+      <c r="K617" s="1"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618">
@@ -22054,9 +20817,7 @@
       <c r="J618">
         <v>10</v>
       </c>
-      <c r="K618" s="1">
-        <v>1</v>
-      </c>
+      <c r="K618" s="1"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619">
@@ -22089,9 +20850,7 @@
       <c r="J619">
         <v>10</v>
       </c>
-      <c r="K619" s="1">
-        <v>1</v>
-      </c>
+      <c r="K619" s="1"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620">
@@ -22124,9 +20883,7 @@
       <c r="J620">
         <v>10</v>
       </c>
-      <c r="K620" s="1">
-        <v>1</v>
-      </c>
+      <c r="K620" s="1"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621">
@@ -22159,9 +20916,7 @@
       <c r="J621">
         <v>2</v>
       </c>
-      <c r="K621" s="1">
-        <v>1</v>
-      </c>
+      <c r="K621" s="1"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622">
@@ -22194,9 +20949,7 @@
       <c r="J622">
         <v>8</v>
       </c>
-      <c r="K622" s="1">
-        <v>1</v>
-      </c>
+      <c r="K622" s="1"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623">
@@ -22229,9 +20982,7 @@
       <c r="J623">
         <v>3</v>
       </c>
-      <c r="K623" s="1">
-        <v>1</v>
-      </c>
+      <c r="K623" s="1"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624">
@@ -22264,9 +21015,7 @@
       <c r="J624">
         <v>10</v>
       </c>
-      <c r="K624" s="1">
-        <v>1</v>
-      </c>
+      <c r="K624" s="1"/>
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625">
@@ -22299,9 +21048,7 @@
       <c r="J625">
         <v>6</v>
       </c>
-      <c r="K625" s="1">
-        <v>1</v>
-      </c>
+      <c r="K625" s="1"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626">
@@ -22334,9 +21081,7 @@
       <c r="J626">
         <v>10</v>
       </c>
-      <c r="K626" s="1">
-        <v>1</v>
-      </c>
+      <c r="K626" s="1"/>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627">
@@ -22369,9 +21114,7 @@
       <c r="J627">
         <v>5</v>
       </c>
-      <c r="K627" s="1">
-        <v>1</v>
-      </c>
+      <c r="K627" s="1"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628">
@@ -22404,9 +21147,7 @@
       <c r="J628">
         <v>5</v>
       </c>
-      <c r="K628" s="1">
-        <v>1</v>
-      </c>
+      <c r="K628" s="1"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629">
@@ -22439,9 +21180,7 @@
       <c r="J629">
         <v>6</v>
       </c>
-      <c r="K629" s="1">
-        <v>1</v>
-      </c>
+      <c r="K629" s="1"/>
     </row>
     <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630">
@@ -22474,9 +21213,7 @@
       <c r="J630">
         <v>6</v>
       </c>
-      <c r="K630" s="1">
-        <v>1</v>
-      </c>
+      <c r="K630" s="1"/>
     </row>
     <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631">
@@ -22509,9 +21246,7 @@
       <c r="J631">
         <v>7</v>
       </c>
-      <c r="K631" s="1">
-        <v>1</v>
-      </c>
+      <c r="K631" s="1"/>
     </row>
     <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632">
@@ -22544,9 +21279,7 @@
       <c r="J632">
         <v>7</v>
       </c>
-      <c r="K632" s="1">
-        <v>1</v>
-      </c>
+      <c r="K632" s="1"/>
     </row>
     <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633">
@@ -22579,9 +21312,7 @@
       <c r="J633">
         <v>3</v>
       </c>
-      <c r="K633" s="1">
-        <v>1</v>
-      </c>
+      <c r="K633" s="1"/>
     </row>
     <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634">
@@ -22614,9 +21345,7 @@
       <c r="J634">
         <v>8</v>
       </c>
-      <c r="K634" s="1">
-        <v>1</v>
-      </c>
+      <c r="K634" s="1"/>
     </row>
     <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635">
@@ -22649,9 +21378,7 @@
       <c r="J635">
         <v>8</v>
       </c>
-      <c r="K635" s="1">
-        <v>1</v>
-      </c>
+      <c r="K635" s="1"/>
     </row>
     <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636">
@@ -22684,9 +21411,7 @@
       <c r="J636">
         <v>10</v>
       </c>
-      <c r="K636" s="1">
-        <v>1</v>
-      </c>
+      <c r="K636" s="1"/>
     </row>
     <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637">
@@ -22719,9 +21444,7 @@
       <c r="J637">
         <v>6</v>
       </c>
-      <c r="K637" s="1">
-        <v>1</v>
-      </c>
+      <c r="K637" s="1"/>
     </row>
     <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638">
@@ -22754,9 +21477,7 @@
       <c r="J638">
         <v>8</v>
       </c>
-      <c r="K638" s="1">
-        <v>1</v>
-      </c>
+      <c r="K638" s="1"/>
     </row>
     <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639">
@@ -22789,9 +21510,7 @@
       <c r="J639">
         <v>6</v>
       </c>
-      <c r="K639" s="1">
-        <v>1</v>
-      </c>
+      <c r="K639" s="1"/>
     </row>
     <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640">
@@ -22824,9 +21543,7 @@
       <c r="J640">
         <v>10</v>
       </c>
-      <c r="K640" s="1">
-        <v>1</v>
-      </c>
+      <c r="K640" s="1"/>
     </row>
     <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641">
@@ -22859,9 +21576,7 @@
       <c r="J641">
         <v>5</v>
       </c>
-      <c r="K641" s="1">
-        <v>1</v>
-      </c>
+      <c r="K641" s="1"/>
     </row>
     <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642">
@@ -22894,9 +21609,7 @@
       <c r="J642">
         <v>10</v>
       </c>
-      <c r="K642" s="1">
-        <v>1</v>
-      </c>
+      <c r="K642" s="1"/>
     </row>
     <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643">
@@ -22929,9 +21642,7 @@
       <c r="J643">
         <v>8</v>
       </c>
-      <c r="K643" s="1">
-        <v>1</v>
-      </c>
+      <c r="K643" s="1"/>
     </row>
     <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644">
@@ -22964,9 +21675,7 @@
       <c r="J644">
         <v>8</v>
       </c>
-      <c r="K644" s="1">
-        <v>1</v>
-      </c>
+      <c r="K644" s="1"/>
     </row>
     <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645">
@@ -22999,9 +21708,7 @@
       <c r="J645">
         <v>5</v>
       </c>
-      <c r="K645" s="1">
-        <v>1</v>
-      </c>
+      <c r="K645" s="1"/>
     </row>
     <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646">
@@ -23034,9 +21741,7 @@
       <c r="J646">
         <v>5</v>
       </c>
-      <c r="K646" s="1">
-        <v>1</v>
-      </c>
+      <c r="K646" s="1"/>
     </row>
     <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647">
@@ -23069,9 +21774,7 @@
       <c r="J647">
         <v>1</v>
       </c>
-      <c r="K647" s="1">
-        <v>1</v>
-      </c>
+      <c r="K647" s="1"/>
     </row>
     <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648">
@@ -23104,9 +21807,7 @@
       <c r="J648">
         <v>6</v>
       </c>
-      <c r="K648" s="1">
-        <v>1</v>
-      </c>
+      <c r="K648" s="1"/>
     </row>
     <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649">
@@ -23139,9 +21840,7 @@
       <c r="J649">
         <v>10</v>
       </c>
-      <c r="K649" s="1">
-        <v>1</v>
-      </c>
+      <c r="K649" s="1"/>
     </row>
     <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650">
@@ -23174,9 +21873,7 @@
       <c r="J650">
         <v>10</v>
       </c>
-      <c r="K650" s="1">
-        <v>1</v>
-      </c>
+      <c r="K650" s="1"/>
     </row>
     <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651">
@@ -23209,9 +21906,7 @@
       <c r="J651">
         <v>9</v>
       </c>
-      <c r="K651" s="1">
-        <v>1</v>
-      </c>
+      <c r="K651" s="1"/>
     </row>
     <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652">
@@ -23244,9 +21939,7 @@
       <c r="J652">
         <v>7</v>
       </c>
-      <c r="K652" s="1">
-        <v>1</v>
-      </c>
+      <c r="K652" s="1"/>
     </row>
     <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653">
@@ -23279,9 +21972,7 @@
       <c r="J653">
         <v>8</v>
       </c>
-      <c r="K653" s="1">
-        <v>1</v>
-      </c>
+      <c r="K653" s="1"/>
     </row>
     <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654">
@@ -23314,9 +22005,7 @@
       <c r="J654">
         <v>4</v>
       </c>
-      <c r="K654" s="1">
-        <v>1</v>
-      </c>
+      <c r="K654" s="1"/>
     </row>
     <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655">
@@ -23349,9 +22038,7 @@
       <c r="J655">
         <v>4</v>
       </c>
-      <c r="K655" s="1">
-        <v>1</v>
-      </c>
+      <c r="K655" s="1"/>
     </row>
     <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656">
@@ -23384,9 +22071,7 @@
       <c r="J656">
         <v>8</v>
       </c>
-      <c r="K656" s="1">
-        <v>1</v>
-      </c>
+      <c r="K656" s="1"/>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657">
@@ -23419,9 +22104,7 @@
       <c r="J657">
         <v>6</v>
       </c>
-      <c r="K657" s="1">
-        <v>1</v>
-      </c>
+      <c r="K657" s="1"/>
     </row>
     <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658">
@@ -23454,9 +22137,7 @@
       <c r="J658">
         <v>10</v>
       </c>
-      <c r="K658" s="1">
-        <v>1</v>
-      </c>
+      <c r="K658" s="1"/>
     </row>
     <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659">
@@ -23489,9 +22170,7 @@
       <c r="J659">
         <v>0</v>
       </c>
-      <c r="K659" s="1">
-        <v>1</v>
-      </c>
+      <c r="K659" s="1"/>
     </row>
     <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660">
@@ -23524,9 +22203,7 @@
       <c r="J660">
         <v>10</v>
       </c>
-      <c r="K660" s="1">
-        <v>1</v>
-      </c>
+      <c r="K660" s="1"/>
     </row>
     <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661">
@@ -23559,9 +22236,7 @@
       <c r="J661">
         <v>4</v>
       </c>
-      <c r="K661" s="1">
-        <v>1</v>
-      </c>
+      <c r="K661" s="1"/>
     </row>
     <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662">
@@ -23594,9 +22269,7 @@
       <c r="J662">
         <v>7</v>
       </c>
-      <c r="K662" s="1">
-        <v>1</v>
-      </c>
+      <c r="K662" s="1"/>
     </row>
     <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663">
@@ -23629,9 +22302,7 @@
       <c r="J663">
         <v>10</v>
       </c>
-      <c r="K663" s="1">
-        <v>1</v>
-      </c>
+      <c r="K663" s="1"/>
     </row>
     <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664">
@@ -23664,9 +22335,7 @@
       <c r="J664">
         <v>5</v>
       </c>
-      <c r="K664" s="1">
-        <v>1</v>
-      </c>
+      <c r="K664" s="1"/>
     </row>
     <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665">
@@ -23699,9 +22368,7 @@
       <c r="J665">
         <v>7</v>
       </c>
-      <c r="K665" s="1">
-        <v>1</v>
-      </c>
+      <c r="K665" s="1"/>
     </row>
     <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666">
@@ -23734,9 +22401,7 @@
       <c r="J666">
         <v>8</v>
       </c>
-      <c r="K666" s="1">
-        <v>1</v>
-      </c>
+      <c r="K666" s="1"/>
     </row>
     <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667">
@@ -23769,9 +22434,7 @@
       <c r="J667">
         <v>10</v>
       </c>
-      <c r="K667" s="1">
-        <v>1</v>
-      </c>
+      <c r="K667" s="1"/>
     </row>
     <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668">
@@ -23804,9 +22467,7 @@
       <c r="J668">
         <v>5</v>
       </c>
-      <c r="K668" s="1">
-        <v>1</v>
-      </c>
+      <c r="K668" s="1"/>
     </row>
     <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669">
@@ -23839,9 +22500,7 @@
       <c r="J669">
         <v>9</v>
       </c>
-      <c r="K669" s="1">
-        <v>1</v>
-      </c>
+      <c r="K669" s="1"/>
     </row>
     <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670">
@@ -23874,9 +22533,7 @@
       <c r="J670">
         <v>5</v>
       </c>
-      <c r="K670" s="1">
-        <v>1</v>
-      </c>
+      <c r="K670" s="1"/>
     </row>
     <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671">
@@ -23909,9 +22566,7 @@
       <c r="J671">
         <v>7</v>
       </c>
-      <c r="K671" s="1">
-        <v>1</v>
-      </c>
+      <c r="K671" s="1"/>
     </row>
     <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672">
@@ -23944,9 +22599,7 @@
       <c r="J672">
         <v>10</v>
       </c>
-      <c r="K672" s="1">
-        <v>1</v>
-      </c>
+      <c r="K672" s="1"/>
     </row>
     <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673">
@@ -23979,9 +22632,7 @@
       <c r="J673">
         <v>10</v>
       </c>
-      <c r="K673" s="1">
-        <v>1</v>
-      </c>
+      <c r="K673" s="1"/>
     </row>
     <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674">
@@ -24014,9 +22665,7 @@
       <c r="J674">
         <v>5</v>
       </c>
-      <c r="K674" s="1">
-        <v>1</v>
-      </c>
+      <c r="K674" s="1"/>
     </row>
     <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675">
@@ -24049,9 +22698,7 @@
       <c r="J675">
         <v>10</v>
       </c>
-      <c r="K675" s="1">
-        <v>1</v>
-      </c>
+      <c r="K675" s="1"/>
     </row>
     <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676">
@@ -24084,9 +22731,7 @@
       <c r="J676">
         <v>10</v>
       </c>
-      <c r="K676" s="1">
-        <v>1</v>
-      </c>
+      <c r="K676" s="1"/>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677">
@@ -24119,9 +22764,7 @@
       <c r="J677">
         <v>10</v>
       </c>
-      <c r="K677" s="1">
-        <v>1</v>
-      </c>
+      <c r="K677" s="1"/>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678">
@@ -24154,9 +22797,7 @@
       <c r="J678">
         <v>6</v>
       </c>
-      <c r="K678" s="1">
-        <v>1</v>
-      </c>
+      <c r="K678" s="1"/>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679">
@@ -24189,9 +22830,7 @@
       <c r="J679">
         <v>7</v>
       </c>
-      <c r="K679" s="1">
-        <v>1</v>
-      </c>
+      <c r="K679" s="1"/>
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680">
@@ -24224,9 +22863,7 @@
       <c r="J680">
         <v>8</v>
       </c>
-      <c r="K680" s="1">
-        <v>1</v>
-      </c>
+      <c r="K680" s="1"/>
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681">
@@ -24259,9 +22896,7 @@
       <c r="J681">
         <v>9</v>
       </c>
-      <c r="K681" s="1">
-        <v>1</v>
-      </c>
+      <c r="K681" s="1"/>
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682">
@@ -24294,9 +22929,7 @@
       <c r="J682">
         <v>7</v>
       </c>
-      <c r="K682" s="1">
-        <v>1</v>
-      </c>
+      <c r="K682" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
